--- a/DADOS GERAIS - PBI.xlsx
+++ b/DADOS GERAIS - PBI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alew1\Desktop\Novo Relatório\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alew1\Desktop\Novo Relatório\971207LIBBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9A8BC-A869-4E08-A955-DD57E0BBDB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE9B1D-9455-448B-AD91-9212923AB33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDC951FE-0334-4805-9BE1-DC973A09ED47}"/>
   </bookViews>
@@ -20,7 +20,6 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -994,8 +993,14 @@
           <cell r="B2">
             <v>2372.3000000000002</v>
           </cell>
+          <cell r="F2">
+            <v>224.05369999999999</v>
+          </cell>
           <cell r="H2">
             <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -1006,13 +1011,19 @@
             <v>3024.83</v>
           </cell>
           <cell r="F3">
-            <v>277.60430000000002</v>
+            <v>839.18180000000007</v>
+          </cell>
+          <cell r="G3">
+            <v>601.95000000000005</v>
           </cell>
           <cell r="H3">
             <v>0</v>
           </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
           <cell r="J3">
-            <v>2.9999999999999916E-2</v>
+            <v>3.2163723805459621E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -1022,8 +1033,20 @@
           <cell r="B4">
             <v>8002.57</v>
           </cell>
+          <cell r="F4">
+            <v>4626.487799999999</v>
+          </cell>
+          <cell r="G4">
+            <v>762.54</v>
+          </cell>
           <cell r="H4">
             <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>4.8012518982184726E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -1034,13 +1057,19 @@
             <v>6113.08</v>
           </cell>
           <cell r="F5">
-            <v>124.6979</v>
+            <v>2874.9382500000002</v>
+          </cell>
+          <cell r="G5">
+            <v>586.77</v>
           </cell>
           <cell r="H5">
             <v>0</v>
           </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
           <cell r="J5">
-            <v>3.3124757695588092E-2</v>
+            <v>3.4918813948492056E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -1050,8 +1079,14 @@
           <cell r="B6">
             <v>1691.8</v>
           </cell>
+          <cell r="F6">
+            <v>178.93995000000001</v>
+          </cell>
           <cell r="H6">
             <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="7">
@@ -1061,8 +1096,14 @@
           <cell r="B7">
             <v>1312.62</v>
           </cell>
+          <cell r="F7">
+            <v>99.57835</v>
+          </cell>
           <cell r="H7">
             <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>3.499999999999992E-2</v>
           </cell>
         </row>
         <row r="8">
@@ -1072,8 +1113,14 @@
           <cell r="B8">
             <v>3055.97</v>
           </cell>
+          <cell r="F8">
+            <v>578.88419999999996</v>
+          </cell>
           <cell r="H8">
             <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="9">
@@ -1083,8 +1130,14 @@
           <cell r="B9">
             <v>1112.45</v>
           </cell>
+          <cell r="F9">
+            <v>216.81620000000001</v>
+          </cell>
           <cell r="H9">
             <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="10">
@@ -1094,8 +1147,20 @@
           <cell r="B10">
             <v>2823.47</v>
           </cell>
+          <cell r="F10">
+            <v>202.68860000000001</v>
+          </cell>
+          <cell r="G10">
+            <v>279.11</v>
+          </cell>
           <cell r="H10">
-            <v>0</v>
+            <v>76.421400000000006</v>
+          </cell>
+          <cell r="I10">
+            <v>0.27380387660778904</v>
+          </cell>
+          <cell r="J10">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="11">
@@ -1105,8 +1170,20 @@
           <cell r="B11">
             <v>3962.57</v>
           </cell>
+          <cell r="F11">
+            <v>993.39030000000002</v>
+          </cell>
+          <cell r="G11">
+            <v>193.45</v>
+          </cell>
           <cell r="H11">
             <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="12">
@@ -1117,13 +1194,19 @@
             <v>8875.2099999999991</v>
           </cell>
           <cell r="F12">
-            <v>192.48679999999999</v>
+            <v>1790.2520999999999</v>
+          </cell>
+          <cell r="G12">
+            <v>875.32999999999993</v>
           </cell>
           <cell r="H12">
             <v>0</v>
           </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
           <cell r="J12">
-            <v>3.0000000000000027E-2</v>
+            <v>3.4081805527079512E-2</v>
           </cell>
         </row>
         <row r="13">
@@ -1133,8 +1216,14 @@
           <cell r="B13">
             <v>4441.33</v>
           </cell>
+          <cell r="F13">
+            <v>318.53684999999996</v>
+          </cell>
           <cell r="H13">
             <v>0</v>
+          </cell>
+          <cell r="J13">
+            <v>3.5000000000000253E-2</v>
           </cell>
         </row>
         <row r="14">
@@ -1144,8 +1233,14 @@
           <cell r="B14">
             <v>3940.5</v>
           </cell>
+          <cell r="F14">
+            <v>1221.7190860000001</v>
+          </cell>
           <cell r="H14">
             <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>3.6088645006548514E-2</v>
           </cell>
         </row>
         <row r="15">
@@ -1155,8 +1250,14 @@
           <cell r="B15">
             <v>2563.6</v>
           </cell>
+          <cell r="F15">
+            <v>869.73136199999999</v>
+          </cell>
           <cell r="H15">
             <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>4.5970600236935777E-2</v>
           </cell>
         </row>
         <row r="16">
@@ -1166,8 +1267,14 @@
           <cell r="B16">
             <v>23559.16</v>
           </cell>
+          <cell r="F16">
+            <v>3255.2520229999996</v>
+          </cell>
           <cell r="H16">
             <v>0</v>
+          </cell>
+          <cell r="J16">
+            <v>6.5514552156326955E-2</v>
           </cell>
         </row>
         <row r="17">
@@ -1178,13 +1285,19 @@
             <v>10869.3</v>
           </cell>
           <cell r="F17">
-            <v>1918.1006339999999</v>
+            <v>4018.8670339999999</v>
+          </cell>
+          <cell r="G17">
+            <v>2418.85</v>
           </cell>
           <cell r="H17">
             <v>0</v>
           </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
           <cell r="J17">
-            <v>5.1300000000000012E-2</v>
+            <v>4.2848867051857864E-2</v>
           </cell>
         </row>
         <row r="18">
@@ -1194,8 +1307,14 @@
           <cell r="B18">
             <v>5021.54</v>
           </cell>
+          <cell r="F18">
+            <v>3268.4454500000002</v>
+          </cell>
           <cell r="H18">
             <v>0</v>
+          </cell>
+          <cell r="J18">
+            <v>6.641717866762642E-2</v>
           </cell>
         </row>
         <row r="19">
@@ -1205,8 +1324,14 @@
           <cell r="B19">
             <v>4034.22</v>
           </cell>
+          <cell r="F19">
+            <v>96.065749999999994</v>
+          </cell>
           <cell r="H19">
             <v>0</v>
+          </cell>
+          <cell r="J19">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="20">
@@ -1216,8 +1341,14 @@
           <cell r="B20">
             <v>7606.32</v>
           </cell>
+          <cell r="F20">
+            <v>89.725700000000003</v>
+          </cell>
           <cell r="H20">
             <v>0</v>
+          </cell>
+          <cell r="J20">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="21">
@@ -1227,8 +1358,14 @@
           <cell r="B21">
             <v>2679</v>
           </cell>
+          <cell r="F21">
+            <v>525.01790000000005</v>
+          </cell>
           <cell r="H21">
             <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>3.4999999999999809E-2</v>
           </cell>
         </row>
         <row r="22">
@@ -1238,8 +1375,14 @@
           <cell r="B22">
             <v>4163.63</v>
           </cell>
+          <cell r="F22">
+            <v>1150.9555</v>
+          </cell>
           <cell r="H22">
             <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>3.4999999999999809E-2</v>
           </cell>
         </row>
         <row r="23">
@@ -1250,13 +1393,19 @@
             <v>3394.9</v>
           </cell>
           <cell r="F23">
-            <v>185.852</v>
+            <v>539.60169999999994</v>
+          </cell>
+          <cell r="G23">
+            <v>313.58999999999997</v>
           </cell>
           <cell r="H23">
             <v>0</v>
           </cell>
+          <cell r="I23">
+            <v>0</v>
+          </cell>
           <cell r="J23">
-            <v>3.0000000000000138E-2</v>
+            <v>3.3283707764520609E-2</v>
           </cell>
         </row>
         <row r="24">
@@ -1267,13 +1416,19 @@
             <v>14808.62</v>
           </cell>
           <cell r="F24">
-            <v>140.24260000000001</v>
+            <v>1658.5317</v>
+          </cell>
+          <cell r="G24">
+            <v>2038.91</v>
           </cell>
           <cell r="H24">
-            <v>0</v>
+            <v>380.37830000000008</v>
+          </cell>
+          <cell r="I24">
+            <v>0.18655963235258058</v>
           </cell>
           <cell r="J24">
-            <v>3.0000000000000027E-2</v>
+            <v>3.3506582052761247E-2</v>
           </cell>
         </row>
         <row r="25">
@@ -1283,8 +1438,14 @@
           <cell r="B25">
             <v>3505.93</v>
           </cell>
+          <cell r="F25">
+            <v>895.35595000000001</v>
+          </cell>
           <cell r="H25">
             <v>0</v>
+          </cell>
+          <cell r="J25">
+            <v>3.5000000000000031E-2</v>
           </cell>
         </row>
         <row r="26">
@@ -1294,8 +1455,14 @@
           <cell r="B26">
             <v>4639.21</v>
           </cell>
+          <cell r="F26">
+            <v>261.40704999999997</v>
+          </cell>
           <cell r="H26">
             <v>0</v>
+          </cell>
+          <cell r="J26">
+            <v>8.0168021394137812E-2</v>
           </cell>
         </row>
         <row r="27">
@@ -1316,8 +1483,20 @@
           <cell r="B28">
             <v>5797.45</v>
           </cell>
+          <cell r="F28">
+            <v>2555.25245</v>
+          </cell>
+          <cell r="G28">
+            <v>353.06</v>
+          </cell>
           <cell r="H28">
             <v>0</v>
+          </cell>
+          <cell r="I28">
+            <v>0</v>
+          </cell>
+          <cell r="J28">
+            <v>3.5000000000000142E-2</v>
           </cell>
         </row>
         <row r="29">
@@ -1328,13 +1507,13 @@
             <v>14648.61</v>
           </cell>
           <cell r="F29">
-            <v>414.6798</v>
+            <v>5322.87835</v>
           </cell>
           <cell r="H29">
             <v>0</v>
           </cell>
           <cell r="J29">
-            <v>3.5000000000000031E-2</v>
+            <v>3.3709592507674468E-2</v>
           </cell>
         </row>
         <row r="30">
@@ -1345,13 +1524,13 @@
             <v>3904.54</v>
           </cell>
           <cell r="F30">
-            <v>158.28895</v>
+            <v>3026.1279999999997</v>
           </cell>
           <cell r="H30">
             <v>0</v>
           </cell>
           <cell r="J30">
-            <v>3.5000000000000031E-2</v>
+            <v>3.2332663946483042E-2</v>
           </cell>
         </row>
         <row r="31">
@@ -1362,13 +1541,13 @@
             <v>2299.81</v>
           </cell>
           <cell r="F31">
-            <v>152.41210000000001</v>
+            <v>1223.58925</v>
           </cell>
           <cell r="H31">
             <v>0</v>
           </cell>
           <cell r="J31">
-            <v>3.499999999999992E-2</v>
+            <v>3.2850452515511885E-2</v>
           </cell>
         </row>
         <row r="32">
@@ -1378,8 +1557,14 @@
           <cell r="B32">
             <v>3167.67</v>
           </cell>
+          <cell r="F32">
+            <v>1589.6522</v>
+          </cell>
           <cell r="H32">
             <v>0</v>
+          </cell>
+          <cell r="J32">
+            <v>3.4608536170626314E-2</v>
           </cell>
         </row>
         <row r="33">
@@ -1389,8 +1574,14 @@
           <cell r="B33">
             <v>1622.13</v>
           </cell>
+          <cell r="F33">
+            <v>399.71265</v>
+          </cell>
           <cell r="H33">
             <v>0</v>
+          </cell>
+          <cell r="J33">
+            <v>3.5000000000000142E-2</v>
           </cell>
         </row>
         <row r="34">
@@ -1400,8 +1591,14 @@
           <cell r="B34">
             <v>791.33</v>
           </cell>
+          <cell r="F34">
+            <v>222.08725000000001</v>
+          </cell>
           <cell r="H34">
             <v>0</v>
+          </cell>
+          <cell r="J34">
+            <v>3.1666666666666621E-2</v>
           </cell>
         </row>
         <row r="35">
@@ -1428,8 +1625,14 @@
           <cell r="B36">
             <v>1318.29</v>
           </cell>
+          <cell r="F36">
+            <v>115.67455000000001</v>
+          </cell>
           <cell r="H36">
             <v>0</v>
+          </cell>
+          <cell r="J36">
+            <v>3.499999999999992E-2</v>
           </cell>
         </row>
         <row r="37">
@@ -1439,8 +1642,20 @@
           <cell r="B37">
             <v>1243.21</v>
           </cell>
+          <cell r="F37">
+            <v>32.356450000000002</v>
+          </cell>
+          <cell r="G37">
+            <v>27.58</v>
+          </cell>
           <cell r="H37">
             <v>0</v>
+          </cell>
+          <cell r="I37">
+            <v>0</v>
+          </cell>
+          <cell r="J37">
+            <v>3.499999999999992E-2</v>
           </cell>
         </row>
         <row r="38">
@@ -1450,8 +1665,14 @@
           <cell r="B38">
             <v>22426.62</v>
           </cell>
+          <cell r="F38">
+            <v>5029.243105999999</v>
+          </cell>
           <cell r="H38">
             <v>0</v>
+          </cell>
+          <cell r="J38">
+            <v>5.1105900443575991E-2</v>
           </cell>
         </row>
         <row r="39">
@@ -1461,8 +1682,14 @@
           <cell r="B39">
             <v>5808.8</v>
           </cell>
+          <cell r="F39">
+            <v>1217.3572039999999</v>
+          </cell>
           <cell r="H39">
             <v>0</v>
+          </cell>
+          <cell r="J39">
+            <v>5.4230084837937786E-2</v>
           </cell>
         </row>
         <row r="40">
@@ -1472,8 +1699,14 @@
           <cell r="B40">
             <v>3980.36</v>
           </cell>
+          <cell r="F40">
+            <v>1123.655636</v>
+          </cell>
           <cell r="H40">
             <v>0</v>
+          </cell>
+          <cell r="J40">
+            <v>4.0897568220422342E-2</v>
           </cell>
         </row>
         <row r="41">
@@ -1483,8 +1716,14 @@
           <cell r="B41">
             <v>2360.37</v>
           </cell>
+          <cell r="F41">
+            <v>1233.9460000000001</v>
+          </cell>
           <cell r="H41">
             <v>0</v>
+          </cell>
+          <cell r="J41">
+            <v>5.4128595081866515E-2</v>
           </cell>
         </row>
         <row r="42">
@@ -1494,8 +1733,14 @@
           <cell r="B42">
             <v>1570.25</v>
           </cell>
+          <cell r="F42">
+            <v>740.71187699999996</v>
+          </cell>
           <cell r="H42">
             <v>0</v>
+          </cell>
+          <cell r="J42">
+            <v>6.1046969716176402E-2</v>
           </cell>
         </row>
         <row r="43">
@@ -1505,8 +1750,14 @@
           <cell r="B43">
             <v>3814.03</v>
           </cell>
+          <cell r="F43">
+            <v>1375.004324</v>
+          </cell>
           <cell r="H43">
             <v>0</v>
+          </cell>
+          <cell r="J43">
+            <v>5.7874211871432824E-2</v>
           </cell>
         </row>
         <row r="44">
@@ -1516,8 +1767,20 @@
           <cell r="B44">
             <v>10098.9</v>
           </cell>
+          <cell r="F44">
+            <v>3495.8005769999995</v>
+          </cell>
+          <cell r="G44">
+            <v>147.38999999999999</v>
+          </cell>
           <cell r="H44">
             <v>0</v>
+          </cell>
+          <cell r="I44">
+            <v>0</v>
+          </cell>
+          <cell r="J44">
+            <v>4.9180884344860232E-2</v>
           </cell>
         </row>
         <row r="45">
@@ -1527,8 +1790,14 @@
           <cell r="B45">
             <v>3269.51</v>
           </cell>
+          <cell r="F45">
+            <v>1203.0272430000002</v>
+          </cell>
           <cell r="H45">
             <v>0</v>
+          </cell>
+          <cell r="J45">
+            <v>4.5867706961914778E-2</v>
           </cell>
         </row>
         <row r="46">
@@ -1538,8 +1807,14 @@
           <cell r="B46">
             <v>7583.16</v>
           </cell>
+          <cell r="F46">
+            <v>1979.8794319999995</v>
+          </cell>
           <cell r="H46">
             <v>0</v>
+          </cell>
+          <cell r="J46">
+            <v>4.3864456152720832E-2</v>
           </cell>
         </row>
         <row r="47">
@@ -1549,8 +1824,14 @@
           <cell r="B47">
             <v>1552.78</v>
           </cell>
+          <cell r="F47">
+            <v>164.50783999999999</v>
+          </cell>
           <cell r="H47">
             <v>0</v>
+          </cell>
+          <cell r="J47">
+            <v>5.1500000000000101E-2</v>
           </cell>
         </row>
         <row r="48">
@@ -1560,8 +1841,14 @@
           <cell r="B48">
             <v>6401.37</v>
           </cell>
+          <cell r="F48">
+            <v>1114.0064589999999</v>
+          </cell>
           <cell r="H48">
             <v>0</v>
+          </cell>
+          <cell r="J48">
+            <v>5.3769645208143979E-2</v>
           </cell>
         </row>
         <row r="49">
@@ -1571,8 +1858,14 @@
           <cell r="B49">
             <v>6197.6</v>
           </cell>
+          <cell r="F49">
+            <v>1218.605542</v>
+          </cell>
           <cell r="H49">
             <v>0</v>
+          </cell>
+          <cell r="J49">
+            <v>5.5593454438365053E-2</v>
           </cell>
         </row>
         <row r="50">
@@ -1582,8 +1875,14 @@
           <cell r="B50">
             <v>1372.88</v>
           </cell>
+          <cell r="F50">
+            <v>411.10918500000002</v>
+          </cell>
           <cell r="H50">
             <v>0</v>
+          </cell>
+          <cell r="J50">
+            <v>4.6061850287729578E-2</v>
           </cell>
         </row>
         <row r="51">
@@ -1593,8 +1892,14 @@
           <cell r="B51">
             <v>4.7699999999999996</v>
           </cell>
+          <cell r="F51">
+            <v>384.10376599999995</v>
+          </cell>
           <cell r="H51">
             <v>0</v>
+          </cell>
+          <cell r="J51">
+            <v>3.7526896862784542E-2</v>
           </cell>
         </row>
         <row r="52">
@@ -1604,8 +1909,14 @@
           <cell r="B52">
             <v>1095.1500000000001</v>
           </cell>
+          <cell r="F52">
+            <v>348.70177100000001</v>
+          </cell>
           <cell r="H52">
             <v>0</v>
+          </cell>
+          <cell r="J52">
+            <v>4.9884823301817316E-2</v>
           </cell>
         </row>
         <row r="53">
@@ -1615,8 +1926,14 @@
           <cell r="B53">
             <v>3321.86</v>
           </cell>
+          <cell r="F53">
+            <v>639.43674800000008</v>
+          </cell>
           <cell r="H53">
             <v>0</v>
+          </cell>
+          <cell r="J53">
+            <v>4.1051052023814871E-2</v>
           </cell>
         </row>
         <row r="54">
@@ -1626,8 +1943,14 @@
           <cell r="B54">
             <v>2419.8000000000002</v>
           </cell>
+          <cell r="F54">
+            <v>297.58533</v>
+          </cell>
           <cell r="H54">
             <v>0</v>
+          </cell>
+          <cell r="J54">
+            <v>3.5567377495462793E-2</v>
           </cell>
         </row>
         <row r="55">
@@ -1637,8 +1960,14 @@
           <cell r="B55">
             <v>1984.28</v>
           </cell>
+          <cell r="F55">
+            <v>593.70029900000009</v>
+          </cell>
           <cell r="H55">
             <v>0</v>
+          </cell>
+          <cell r="J55">
+            <v>4.9425526362136929E-2</v>
           </cell>
         </row>
         <row r="56">
@@ -1648,8 +1977,14 @@
           <cell r="B56">
             <v>2023.15</v>
           </cell>
+          <cell r="F56">
+            <v>560.29328599999997</v>
+          </cell>
           <cell r="H56">
             <v>0</v>
+          </cell>
+          <cell r="J56">
+            <v>9.6548872083460968E-2</v>
           </cell>
         </row>
         <row r="57">
@@ -1659,8 +1994,14 @@
           <cell r="B57">
             <v>2101.0500000000002</v>
           </cell>
+          <cell r="F57">
+            <v>177.678675</v>
+          </cell>
           <cell r="H57">
             <v>0</v>
+          </cell>
+          <cell r="J57">
+            <v>4.9846657754010759E-2</v>
           </cell>
         </row>
         <row r="58">
@@ -1670,8 +2011,14 @@
           <cell r="B58">
             <v>2323.44</v>
           </cell>
+          <cell r="F58">
+            <v>444.85922999999997</v>
+          </cell>
           <cell r="H58">
             <v>0</v>
+          </cell>
+          <cell r="J58">
+            <v>0.10007640644913329</v>
           </cell>
         </row>
         <row r="59">
@@ -1681,8 +2028,14 @@
           <cell r="B59">
             <v>596.88</v>
           </cell>
+          <cell r="F59">
+            <v>53.704070000000002</v>
+          </cell>
           <cell r="H59">
             <v>0</v>
+          </cell>
+          <cell r="J59">
+            <v>5.1499999999999879E-2</v>
           </cell>
         </row>
         <row r="60">
@@ -1692,8 +2045,14 @@
           <cell r="B60">
             <v>1173.95</v>
           </cell>
+          <cell r="F60">
+            <v>402.45733200000001</v>
+          </cell>
           <cell r="H60">
             <v>0</v>
+          </cell>
+          <cell r="J60">
+            <v>4.2247133576069018E-2</v>
           </cell>
         </row>
         <row r="61">
@@ -1703,8 +2062,14 @@
           <cell r="B61">
             <v>862.37</v>
           </cell>
+          <cell r="F61">
+            <v>200.79728399999999</v>
+          </cell>
           <cell r="H61">
             <v>0</v>
+          </cell>
+          <cell r="J61">
+            <v>3.7497440322116882E-2</v>
           </cell>
         </row>
         <row r="62">
@@ -1714,8 +2079,14 @@
           <cell r="B62">
             <v>1618.35</v>
           </cell>
+          <cell r="F62">
+            <v>262.48</v>
+          </cell>
           <cell r="H62">
             <v>0</v>
+          </cell>
+          <cell r="J62">
+            <v>3.499999999999992E-2</v>
           </cell>
         </row>
         <row r="63">
@@ -1725,8 +2096,14 @@
           <cell r="B63">
             <v>18533.84</v>
           </cell>
+          <cell r="F63">
+            <v>2934.3641000000002</v>
+          </cell>
           <cell r="H63">
             <v>0</v>
+          </cell>
+          <cell r="J63">
+            <v>0.10426805741252898</v>
           </cell>
         </row>
         <row r="64">
@@ -1736,8 +2113,20 @@
           <cell r="B64">
             <v>4724.75</v>
           </cell>
+          <cell r="F64">
+            <v>1138.7289500000002</v>
+          </cell>
+          <cell r="G64">
+            <v>557.58999999999992</v>
+          </cell>
           <cell r="H64">
             <v>0</v>
+          </cell>
+          <cell r="I64">
+            <v>0</v>
+          </cell>
+          <cell r="J64">
+            <v>3.4999999999999698E-2</v>
           </cell>
         </row>
         <row r="65">
@@ -1748,7 +2137,7 @@
             <v>1957.06</v>
           </cell>
           <cell r="F65">
-            <v>166.3356</v>
+            <v>545.76499999999999</v>
           </cell>
         </row>
         <row r="66">
@@ -1759,7 +2148,7 @@
             <v>2674.33</v>
           </cell>
           <cell r="F66">
-            <v>368.61331999999999</v>
+            <v>812.09688600000004</v>
           </cell>
         </row>
         <row r="67">
@@ -1770,7 +2159,7 @@
             <v>3820.66</v>
           </cell>
           <cell r="F67">
-            <v>221.15384800000001</v>
+            <v>1413.279655</v>
           </cell>
         </row>
         <row r="68">
@@ -1780,6 +2169,9 @@
           <cell r="B68">
             <v>3842.79</v>
           </cell>
+          <cell r="F68">
+            <v>583.45392500000003</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
@@ -1789,7 +2181,7 @@
             <v>7694.37</v>
           </cell>
           <cell r="F69">
-            <v>61.819099999999999</v>
+            <v>816.29820200000006</v>
           </cell>
         </row>
         <row r="70">
@@ -1800,7 +2192,7 @@
             <v>11955.44</v>
           </cell>
           <cell r="F70">
-            <v>281.02096699999998</v>
+            <v>1029.220313</v>
           </cell>
         </row>
         <row r="71">
@@ -1811,7 +2203,7 @@
             <v>3068.69</v>
           </cell>
           <cell r="F71">
-            <v>176.56023500000001</v>
+            <v>787.24679700000002</v>
           </cell>
         </row>
         <row r="72">
@@ -1821,6 +2213,9 @@
           <cell r="B72">
             <v>3937.01</v>
           </cell>
+          <cell r="F72">
+            <v>565.80890999999997</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
@@ -1830,7 +2225,7 @@
             <v>4696.2700000000004</v>
           </cell>
           <cell r="F73">
-            <v>138.18720400000001</v>
+            <v>1076.7179410000001</v>
           </cell>
         </row>
         <row r="74">
@@ -1840,6 +2235,9 @@
           <cell r="B74">
             <v>5458.9</v>
           </cell>
+          <cell r="F74">
+            <v>1307.2729980000001</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
@@ -1848,6 +2246,9 @@
           <cell r="B75">
             <v>4152.74</v>
           </cell>
+          <cell r="F75">
+            <v>531.08273600000007</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
@@ -1857,7 +2258,7 @@
             <v>4832.41</v>
           </cell>
           <cell r="F76">
-            <v>35.31</v>
+            <v>666.02145299999995</v>
           </cell>
         </row>
         <row r="77">
@@ -1868,7 +2269,7 @@
             <v>2099.16</v>
           </cell>
           <cell r="F77">
-            <v>61.819099999999999</v>
+            <v>696.881843</v>
           </cell>
         </row>
         <row r="78">
@@ -1879,7 +2280,7 @@
             <v>7550.03</v>
           </cell>
           <cell r="F78">
-            <v>123.6382</v>
+            <v>177.34226999999998</v>
           </cell>
         </row>
         <row r="79">
@@ -1890,7 +2291,7 @@
             <v>3821</v>
           </cell>
           <cell r="F79">
-            <v>66.244145000000003</v>
+            <v>735.91362500000002</v>
           </cell>
         </row>
         <row r="80">
@@ -1900,6 +2301,9 @@
           <cell r="B80">
             <v>1318.65</v>
           </cell>
+          <cell r="F80">
+            <v>209.00302500000001</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
@@ -1908,6 +2312,9 @@
           <cell r="B81">
             <v>745.26</v>
           </cell>
+          <cell r="F81">
+            <v>188.55231499999999</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
@@ -1917,7 +2324,7 @@
             <v>4527.72</v>
           </cell>
           <cell r="F82">
-            <v>316.00855000000001</v>
+            <v>1925.5465000000002</v>
           </cell>
         </row>
         <row r="83">
@@ -1928,7 +2335,7 @@
             <v>376184.47</v>
           </cell>
           <cell r="F83">
-            <v>5900.4881699999996</v>
+            <v>88414.417931999982</v>
           </cell>
         </row>
         <row r="85">
@@ -1959,22 +2366,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Planilha1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
       <sheetName val="RELATÓRIO PLK"/>
     </sheetNames>
     <sheetDataSet>
@@ -1986,7 +2377,7 @@
         </row>
         <row r="4">
           <cell r="I4">
-            <v>42825.43</v>
+            <v>112396.43</v>
           </cell>
         </row>
         <row r="7">
@@ -1996,7 +2387,7 @@
         </row>
         <row r="8">
           <cell r="I8">
-            <v>42825.43</v>
+            <v>112396.43</v>
           </cell>
         </row>
         <row r="11">
@@ -2017,7 +2408,7 @@
             <v>00.188.939/0002-02</v>
           </cell>
           <cell r="I13">
-            <v>163.65</v>
+            <v>561.58000000000004</v>
           </cell>
         </row>
         <row r="14">
@@ -2025,7 +2416,7 @@
             <v>01.795.629/0001-38</v>
           </cell>
           <cell r="I14">
-            <v>870.22</v>
+            <v>7180.44</v>
           </cell>
         </row>
         <row r="15">
@@ -2033,545 +2424,641 @@
             <v>02.859.607/0001-57</v>
           </cell>
           <cell r="I15">
-            <v>844.54</v>
+            <v>3321.45</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>02.859.607/0005-80</v>
+            <v>02.859.607/0003-19</v>
           </cell>
           <cell r="I16">
-            <v>303.95</v>
+            <v>178.94</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>04.278.732/0001-07</v>
+            <v>02.859.607/0004-08</v>
           </cell>
           <cell r="I17">
-            <v>0</v>
+            <v>99.58</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>04.803.784/0001-47</v>
+            <v>02.859.607/0005-80</v>
           </cell>
           <cell r="I18">
-            <v>202.69</v>
+            <v>932.87</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>05.865.389/0001-51</v>
+            <v>04.278.732/0001-07</v>
           </cell>
           <cell r="I19">
-            <v>578.20000000000005</v>
+            <v>270.94</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>05.990.628/0001-03</v>
+            <v>04.803.784/0001-47</v>
           </cell>
           <cell r="I20">
-            <v>1065.75</v>
+            <v>539.14</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>07.182.466/0001-02</v>
+            <v>05.865.389/0001-51</v>
           </cell>
           <cell r="I21">
-            <v>318.54000000000002</v>
+            <v>1377.29</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>07.523.425/0001-24</v>
+            <v>05.990.628/0001-03</v>
           </cell>
           <cell r="I22">
-            <v>1705.5</v>
+            <v>1909.69</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>11.954.970/0001-42</v>
+            <v>07.182.466/0001-02</v>
           </cell>
           <cell r="I23">
-            <v>212.34</v>
+            <v>841.08</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>14.058.693/0001-88</v>
+            <v>07.322.719/0006-00</v>
           </cell>
           <cell r="I24">
-            <v>2268.37</v>
+            <v>1221.72</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>14.147.528/0001-00</v>
+            <v>07.322.719/0007-83</v>
           </cell>
           <cell r="I25">
-            <v>307.10000000000002</v>
+            <v>869.73</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>14.456.095/0001-67</v>
+            <v>07.322.719/0008-64</v>
           </cell>
           <cell r="I26">
-            <v>94.88</v>
+            <v>3255.25</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>21.909.642/0001-88</v>
+            <v>07.523.425/0001-24</v>
           </cell>
           <cell r="I27">
-            <v>1196.8399999999999</v>
+            <v>2970.53</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>44.647.314/0001-56</v>
+            <v>09.165.311/0001-85</v>
           </cell>
           <cell r="I28">
-            <v>3481.16</v>
+            <v>3268.45</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>44.647.314/0002-37</v>
+            <v>10.359.335/0001-54</v>
           </cell>
           <cell r="I29">
-            <v>1407.9</v>
+            <v>463.3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>44.647.314/0003-18</v>
+            <v>11.635.974/0001-68</v>
           </cell>
           <cell r="I30">
-            <v>696.01</v>
+            <v>89.73</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>44.647.314/0004-07</v>
+            <v>11.635.974/0002-49</v>
           </cell>
           <cell r="I31">
-            <v>1049.44</v>
+            <v>918.25</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>44.647.314/0005-80</v>
+            <v>11.635.974/0003-20</v>
           </cell>
           <cell r="I32">
-            <v>399.71</v>
+            <v>1793.67</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>44.647.314/0006-60</v>
+            <v>11.954.970/0001-42</v>
           </cell>
           <cell r="I33">
-            <v>73.77</v>
+            <v>610.98</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>58.030.177/0001-10</v>
+            <v>14.058.693/0001-88</v>
           </cell>
           <cell r="I34">
-            <v>170.1</v>
+            <v>3753.02</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>72.085.756/0001-91</v>
+            <v>14.147.528/0001-00</v>
           </cell>
           <cell r="I35">
-            <v>115.67</v>
+            <v>895.36</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>72.085.756/0002-72</v>
+            <v>14.456.095/0001-67</v>
           </cell>
           <cell r="I36">
-            <v>32.36</v>
+            <v>261.41000000000003</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>77.884.559/0001-56</v>
+            <v>19.039.166/0001-40</v>
           </cell>
           <cell r="I37">
-            <v>3248.72</v>
+            <v>430.56</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>77.884.559/0002-37</v>
+            <v>21.909.642/0001-88</v>
           </cell>
           <cell r="I38">
-            <v>1148.1500000000001</v>
+            <v>3700.81</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>77.884.559/0004-07</v>
+            <v>44.647.314/0001-56</v>
           </cell>
           <cell r="I39">
-            <v>675.07</v>
+            <v>5793.59</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>77.884.559/0005-80</v>
+            <v>44.647.314/0002-37</v>
           </cell>
           <cell r="I40">
-            <v>925.45</v>
+            <v>3401.21</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>77.884.559/0006-60</v>
+            <v>44.647.314/0003-18</v>
           </cell>
           <cell r="I41">
-            <v>133.25</v>
+            <v>1223.5899999999999</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>77.884.559/0007-41</v>
+            <v>44.647.314/0004-07</v>
           </cell>
           <cell r="I42">
-            <v>472.67</v>
+            <v>1725.41</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>77.884.559/0008-22</v>
+            <v>44.647.314/0005-80</v>
           </cell>
           <cell r="I43">
-            <v>2094.16</v>
+            <v>774.79</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>77.884.559/0009-03</v>
+            <v>44.647.314/0006-60</v>
           </cell>
           <cell r="I44">
-            <v>627.57000000000005</v>
+            <v>222.09</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>77.884.559/0010-47</v>
+            <v>58.030.177/0001-10</v>
           </cell>
           <cell r="I45">
-            <v>1278.08</v>
+            <v>170.1</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>77.884.559/0011-28</v>
+            <v>72.085.756/0001-91</v>
           </cell>
           <cell r="I46">
-            <v>108.5</v>
+            <v>115.67</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>77.884.559/0013-90</v>
+            <v>72.085.756/0002-72</v>
           </cell>
           <cell r="I47">
-            <v>255.73</v>
+            <v>157.05000000000001</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>77.884.559/0014-70</v>
+            <v>77.884.559/0001-56</v>
           </cell>
           <cell r="I48">
-            <v>978.58</v>
+            <v>7971.28</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>77.884.559/0015-51</v>
+            <v>77.884.559/0002-37</v>
           </cell>
           <cell r="I49">
-            <v>72.760000000000005</v>
+            <v>2292.02</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>77.884.559/0017-13</v>
+            <v>77.884.559/0004-07</v>
           </cell>
           <cell r="I50">
-            <v>285.51</v>
+            <v>1710.78</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>77.884.559/0018-02</v>
+            <v>77.884.559/0005-80</v>
           </cell>
           <cell r="I51">
-            <v>348.7</v>
+            <v>1783.01</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>77.884.559/0020-19</v>
+            <v>77.884.559/0006-60</v>
           </cell>
           <cell r="I52">
-            <v>356.85</v>
+            <v>805.38</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>77.884.559/0021-08</v>
+            <v>77.884.559/0007-41</v>
           </cell>
           <cell r="I53">
-            <v>157.91</v>
+            <v>1623.46</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>77.884.559/0022-80</v>
+            <v>77.884.559/0008-22</v>
           </cell>
           <cell r="I54">
-            <v>298.08</v>
+            <v>4405.3599999999997</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55" t="str">
-            <v>77.884.559/0023-61</v>
+            <v>77.884.559/0009-03</v>
           </cell>
           <cell r="I55">
-            <v>201.76</v>
+            <v>1451.75</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56" t="str">
-            <v>77.884.559/0024-42</v>
+            <v>77.884.559/0010-47</v>
           </cell>
           <cell r="I56">
-            <v>75.27</v>
+            <v>2487.19</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57" t="str">
-            <v>77.884.559/0025-23</v>
+            <v>77.884.559/0011-28</v>
           </cell>
           <cell r="I57">
-            <v>326.44</v>
+            <v>509</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58" t="str">
-            <v>77.884.559/0026-04</v>
+            <v>77.884.559/0013-90</v>
           </cell>
           <cell r="I58">
-            <v>53.7</v>
+            <v>1870.46</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59" t="str">
-            <v>77.884.559/0027-95</v>
+            <v>77.884.559/0014-70</v>
           </cell>
           <cell r="I59">
-            <v>172.76</v>
+            <v>1801.87</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60" t="str">
-            <v>77.884.559/0028-76</v>
+            <v>77.884.559/0015-51</v>
           </cell>
           <cell r="I60">
-            <v>102.73</v>
+            <v>540.91999999999996</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>78.069.739/0003-09</v>
+            <v>77.884.559/0017-13</v>
           </cell>
           <cell r="I61">
-            <v>0</v>
+            <v>533.04</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62" t="str">
-            <v>80.213.705/0007-11</v>
+            <v>77.884.559/0018-02</v>
           </cell>
           <cell r="I62">
-            <v>0</v>
+            <v>348.7</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63" t="str">
-            <v>80.267.339/0001-98</v>
+            <v>77.884.559/0020-19</v>
           </cell>
           <cell r="I63">
-            <v>1016.18</v>
+            <v>1024.43</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64" t="str">
-            <v>84.847.763/0001-62</v>
+            <v>77.884.559/0021-08</v>
           </cell>
           <cell r="I64">
-            <v>239.83</v>
+            <v>359.11</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65" t="str">
-            <v>84.932.979/0001-26</v>
+            <v>77.884.559/0022-80</v>
           </cell>
           <cell r="I65">
-            <v>439.16</v>
+            <v>972.17</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>84.932.979/0002-07</v>
+            <v>77.884.559/0023-61</v>
           </cell>
           <cell r="I66">
-            <v>1155.67</v>
+            <v>658.91</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>84.932.979/0003-98</v>
+            <v>77.884.559/0024-42</v>
           </cell>
           <cell r="I67">
-            <v>583.45000000000005</v>
+            <v>352.05</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68" t="str">
-            <v>84.932.979/0004-79</v>
+            <v>77.884.559/0025-23</v>
           </cell>
           <cell r="I68">
-            <v>526.26</v>
+            <v>786.49</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69" t="str">
-            <v>84.932.979/0005-50</v>
+            <v>77.884.559/0026-04</v>
           </cell>
           <cell r="I69">
-            <v>952.22</v>
+            <v>53.7</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70" t="str">
-            <v>84.932.979/0006-30</v>
+            <v>77.884.559/0027-95</v>
           </cell>
           <cell r="I70">
-            <v>531.69000000000005</v>
+            <v>402.46</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71" t="str">
-            <v>84.932.979/0008-00</v>
+            <v>77.884.559/0028-76</v>
           </cell>
           <cell r="I71">
-            <v>296</v>
+            <v>200.8</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72" t="str">
-            <v>84.932.979/0010-17</v>
+            <v>78.069.739/0003-09</v>
           </cell>
           <cell r="I72">
-            <v>1018.16</v>
+            <v>351.02</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>84.932.979/0011-06</v>
+            <v>80.213.705/0007-11</v>
           </cell>
           <cell r="I73">
-            <v>747.01</v>
+            <v>2934.36</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>84.932.979/0012-89</v>
+            <v>80.267.339/0001-98</v>
           </cell>
           <cell r="I74">
-            <v>339.64</v>
+            <v>1410.89</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>84.932.979/0013-60</v>
+            <v>84.847.763/0001-62</v>
           </cell>
           <cell r="I75">
-            <v>597.21</v>
+            <v>379.43</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>84.932.979/0014-40</v>
+            <v>84.932.979/0001-26</v>
           </cell>
           <cell r="I76">
-            <v>287.87</v>
+            <v>522.48</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>84.932.979/0015-21</v>
+            <v>84.932.979/0002-07</v>
           </cell>
           <cell r="I77">
-            <v>0</v>
+            <v>1611.1</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>84.932.979/0018-74</v>
+            <v>84.932.979/0003-98</v>
           </cell>
           <cell r="I78">
-            <v>592.97</v>
+            <v>789.62</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>84.932.979/0019-55</v>
+            <v>84.932.979/0004-79</v>
           </cell>
           <cell r="I79">
-            <v>209</v>
+            <v>891.5</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>84.932.979/0021-70</v>
+            <v>84.932.979/0005-50</v>
           </cell>
           <cell r="I80">
-            <v>188.55</v>
+            <v>1077.3399999999999</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>95.391.744/0001-90</v>
+            <v>84.932.979/0006-30</v>
           </cell>
           <cell r="I81">
-            <v>923.42</v>
+            <v>720.6</v>
           </cell>
         </row>
         <row r="82">
+          <cell r="B82" t="str">
+            <v>84.932.979/0008-00</v>
+          </cell>
           <cell r="I82">
-            <v>42825.43</v>
+            <v>829.58</v>
           </cell>
         </row>
         <row r="83">
+          <cell r="B83" t="str">
+            <v>84.932.979/0010-17</v>
+          </cell>
           <cell r="I83">
-            <v>42825.43</v>
+            <v>1489.79</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>84.932.979/0011-06</v>
+          </cell>
+          <cell r="I84">
+            <v>1694.24</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>84.932.979/0012-89</v>
+          </cell>
+          <cell r="I85">
+            <v>823.87</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>84.932.979/0013-60</v>
+          </cell>
+          <cell r="I86">
+            <v>918.54</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>84.932.979/0014-40</v>
+          </cell>
+          <cell r="I87">
+            <v>1348.54</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>84.932.979/0015-21</v>
+          </cell>
+          <cell r="I88">
+            <v>557.42999999999995</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>84.932.979/0018-74</v>
+          </cell>
+          <cell r="I89">
+            <v>812.91</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>84.932.979/0019-55</v>
+          </cell>
+          <cell r="I90">
+            <v>484.26</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>84.932.979/0021-70</v>
+          </cell>
+          <cell r="I91">
+            <v>285.99</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>84.932.979/0024-12</v>
+          </cell>
+          <cell r="I92">
+            <v>79.39</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>95.391.744/0001-90</v>
+          </cell>
+          <cell r="I93">
+            <v>1915.87</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94">
+            <v>112396.43</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95">
+            <v>112396.43</v>
           </cell>
         </row>
       </sheetData>
@@ -2899,9 +3386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC416316-3490-4501-9F0B-8A224BBAE2A5}">
   <dimension ref="A1:L414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2989,7 +3474,7 @@
       </c>
       <c r="H2" s="1">
         <f>[1]Export!F2</f>
-        <v>0</v>
+        <v>224.05369999999999</v>
       </c>
       <c r="I2" s="1">
         <f>[1]Export!G2</f>
@@ -3005,7 +3490,7 @@
       </c>
       <c r="L2" s="2">
         <f>[1]Export!J2</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3026,23 +3511,23 @@
       </c>
       <c r="E3" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C3,'RELATÓRIO PLK'!B:B)</f>
-        <v>163.65</v>
+        <v>561.58000000000004</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3-D3</f>
-        <v>-2861.18</v>
+        <v>-2463.25</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G64" si="1">E3/D3</f>
-        <v>5.4102214008721151E-2</v>
+        <v>0.18565671459222505</v>
       </c>
       <c r="H3" s="1">
         <f>[1]Export!F3</f>
-        <v>277.60430000000002</v>
+        <v>839.18180000000007</v>
       </c>
       <c r="I3" s="1">
         <f>[1]Export!G3</f>
-        <v>0</v>
+        <v>601.95000000000005</v>
       </c>
       <c r="J3" s="1">
         <f>[1]Export!H3</f>
@@ -3054,7 +3539,7 @@
       </c>
       <c r="L3" s="2">
         <f>[1]Export!J3</f>
-        <v>2.9999999999999916E-2</v>
+        <v>3.2163723805459621E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3075,23 +3560,23 @@
       </c>
       <c r="E4" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C4,'RELATÓRIO PLK'!B:B)</f>
-        <v>870.22</v>
+        <v>7180.44</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-7132.3499999999995</v>
+        <v>-822.13000000000011</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>0.10874256645052778</v>
+        <v>0.8972667530555809</v>
       </c>
       <c r="H4" s="1">
         <f>[1]Export!F4</f>
-        <v>0</v>
+        <v>4626.487799999999</v>
       </c>
       <c r="I4" s="1">
         <f>[1]Export!G4</f>
-        <v>0</v>
+        <v>762.54</v>
       </c>
       <c r="J4" s="1">
         <f>[1]Export!H4</f>
@@ -3103,7 +3588,7 @@
       </c>
       <c r="L4" s="2">
         <f>[1]Export!J4</f>
-        <v>0</v>
+        <v>4.8012518982184726E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3124,23 +3609,23 @@
       </c>
       <c r="E5" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C5,'RELATÓRIO PLK'!B:B)</f>
-        <v>844.54</v>
+        <v>3321.45</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-5268.54</v>
+        <v>-2791.63</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>0.13815294417871188</v>
+        <v>0.54333494735877819</v>
       </c>
       <c r="H5" s="1">
         <f>[1]Export!F5</f>
-        <v>124.6979</v>
+        <v>2874.9382500000002</v>
       </c>
       <c r="I5" s="1">
         <f>[1]Export!G5</f>
-        <v>0</v>
+        <v>586.77</v>
       </c>
       <c r="J5" s="1">
         <f>[1]Export!H5</f>
@@ -3152,7 +3637,7 @@
       </c>
       <c r="L5" s="2">
         <f>[1]Export!J5</f>
-        <v>3.3124757695588092E-2</v>
+        <v>3.4918813948492056E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3173,19 +3658,19 @@
       </c>
       <c r="E6" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C6,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>178.94</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-1691.8</v>
+        <v>-1512.86</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10576900342830121</v>
       </c>
       <c r="H6" s="1">
         <f>[1]Export!F6</f>
-        <v>0</v>
+        <v>178.93995000000001</v>
       </c>
       <c r="I6" s="1">
         <f>[1]Export!G6</f>
@@ -3201,7 +3686,7 @@
       </c>
       <c r="L6" s="2">
         <f>[1]Export!J6</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3222,19 +3707,19 @@
       </c>
       <c r="E7" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C7,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>99.58</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-1312.62</v>
+        <v>-1213.04</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5863540095381765E-2</v>
       </c>
       <c r="H7" s="1">
         <f>[1]Export!F7</f>
-        <v>0</v>
+        <v>99.57835</v>
       </c>
       <c r="I7" s="1">
         <f>[1]Export!G7</f>
@@ -3250,7 +3735,7 @@
       </c>
       <c r="L7" s="2">
         <f>[1]Export!J7</f>
-        <v>0</v>
+        <v>3.499999999999992E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3271,19 +3756,19 @@
       </c>
       <c r="E8" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C8,'RELATÓRIO PLK'!B:B)</f>
-        <v>303.95</v>
+        <v>932.87</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-2752.02</v>
+        <v>-2123.1</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>9.9461054918732847E-2</v>
+        <v>0.30526150453047646</v>
       </c>
       <c r="H8" s="1">
         <f>[1]Export!F8</f>
-        <v>0</v>
+        <v>578.88419999999996</v>
       </c>
       <c r="I8" s="1">
         <f>[1]Export!G8</f>
@@ -3299,7 +3784,7 @@
       </c>
       <c r="L8" s="2">
         <f>[1]Export!J8</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3320,19 +3805,19 @@
       </c>
       <c r="E9" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C9,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>270.94</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-1112.45</v>
+        <v>-841.51</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2435525192143467</v>
       </c>
       <c r="H9" s="1">
         <f>[1]Export!F9</f>
-        <v>0</v>
+        <v>216.81620000000001</v>
       </c>
       <c r="I9" s="1">
         <f>[1]Export!G9</f>
@@ -3348,7 +3833,7 @@
       </c>
       <c r="L9" s="2">
         <f>[1]Export!J9</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3369,35 +3854,35 @@
       </c>
       <c r="E10" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C10,'RELATÓRIO PLK'!B:B)</f>
-        <v>202.69</v>
+        <v>539.14</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-2620.7799999999997</v>
+        <v>-2284.33</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>7.1787552196410809E-2</v>
+        <v>0.1909494345610189</v>
       </c>
       <c r="H10" s="1">
         <f>[1]Export!F10</f>
-        <v>0</v>
+        <v>202.68860000000001</v>
       </c>
       <c r="I10" s="1">
         <f>[1]Export!G10</f>
-        <v>0</v>
+        <v>279.11</v>
       </c>
       <c r="J10" s="1">
         <f>[1]Export!H10</f>
-        <v>0</v>
+        <v>76.421400000000006</v>
       </c>
       <c r="K10" s="2">
         <f>[1]Export!I10</f>
-        <v>0</v>
+        <v>0.27380387660778904</v>
       </c>
       <c r="L10" s="2">
         <f>[1]Export!J10</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3418,23 +3903,23 @@
       </c>
       <c r="E11" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C11,'RELATÓRIO PLK'!B:B)</f>
-        <v>578.20000000000005</v>
+        <v>1377.29</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-3384.37</v>
+        <v>-2585.2800000000002</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>0.14591540338719569</v>
+        <v>0.3475749324302157</v>
       </c>
       <c r="H11" s="1">
         <f>[1]Export!F11</f>
-        <v>0</v>
+        <v>993.39030000000002</v>
       </c>
       <c r="I11" s="1">
         <f>[1]Export!G11</f>
-        <v>0</v>
+        <v>193.45</v>
       </c>
       <c r="J11" s="1">
         <f>[1]Export!H11</f>
@@ -3446,7 +3931,7 @@
       </c>
       <c r="L11" s="2">
         <f>[1]Export!J11</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,23 +3952,23 @@
       </c>
       <c r="E12" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C12,'RELATÓRIO PLK'!B:B)</f>
-        <v>1065.75</v>
+        <v>1909.69</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-7809.4599999999991</v>
+        <v>-6965.5199999999986</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0.12008166567326295</v>
+        <v>0.21517124665219192</v>
       </c>
       <c r="H12" s="1">
         <f>[1]Export!F12</f>
-        <v>192.48679999999999</v>
+        <v>1790.2520999999999</v>
       </c>
       <c r="I12" s="1">
         <f>[1]Export!G12</f>
-        <v>0</v>
+        <v>875.32999999999993</v>
       </c>
       <c r="J12" s="1">
         <f>[1]Export!H12</f>
@@ -3495,7 +3980,7 @@
       </c>
       <c r="L12" s="2">
         <f>[1]Export!J12</f>
-        <v>3.0000000000000027E-2</v>
+        <v>3.4081805527079512E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3516,19 +4001,19 @@
       </c>
       <c r="E13" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C13,'RELATÓRIO PLK'!B:B)</f>
-        <v>318.54000000000002</v>
+        <v>841.08</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>-4122.79</v>
+        <v>-3600.25</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>7.1721759022635112E-2</v>
+        <v>0.18937570502529649</v>
       </c>
       <c r="H13" s="1">
         <f>[1]Export!F13</f>
-        <v>0</v>
+        <v>318.53684999999996</v>
       </c>
       <c r="I13" s="1">
         <f>[1]Export!G13</f>
@@ -3544,7 +4029,7 @@
       </c>
       <c r="L13" s="2">
         <f>[1]Export!J13</f>
-        <v>0</v>
+        <v>3.5000000000000253E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3565,19 +4050,19 @@
       </c>
       <c r="E14" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C14,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>1221.72</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>-3940.5</v>
+        <v>-2718.7799999999997</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.31004187285877427</v>
       </c>
       <c r="H14" s="1">
         <f>[1]Export!F14</f>
-        <v>0</v>
+        <v>1221.7190860000001</v>
       </c>
       <c r="I14" s="1">
         <f>[1]Export!G14</f>
@@ -3593,7 +4078,7 @@
       </c>
       <c r="L14" s="2">
         <f>[1]Export!J14</f>
-        <v>0</v>
+        <v>3.6088645006548514E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3614,19 +4099,19 @@
       </c>
       <c r="E15" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C15,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>869.73</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>-2563.6</v>
+        <v>-1693.87</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33926119519425807</v>
       </c>
       <c r="H15" s="1">
         <f>[1]Export!F15</f>
-        <v>0</v>
+        <v>869.73136199999999</v>
       </c>
       <c r="I15" s="1">
         <f>[1]Export!G15</f>
@@ -3642,7 +4127,7 @@
       </c>
       <c r="L15" s="2">
         <f>[1]Export!J15</f>
-        <v>0</v>
+        <v>4.5970600236935777E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3663,19 +4148,19 @@
       </c>
       <c r="E16" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C16,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>3255.25</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-23559.16</v>
+        <v>-20303.91</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1381734323295058</v>
       </c>
       <c r="H16" s="1">
         <f>[1]Export!F16</f>
-        <v>0</v>
+        <v>3255.2520229999996</v>
       </c>
       <c r="I16" s="1">
         <f>[1]Export!G16</f>
@@ -3691,7 +4176,7 @@
       </c>
       <c r="L16" s="2">
         <f>[1]Export!J16</f>
-        <v>0</v>
+        <v>6.5514552156326955E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3712,23 +4197,23 @@
       </c>
       <c r="E17" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C17,'RELATÓRIO PLK'!B:B)</f>
-        <v>1705.5</v>
+        <v>2970.53</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>-9163.7999999999993</v>
+        <v>-7898.7699999999986</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>0.15690982859981784</v>
+        <v>0.27329542840845322</v>
       </c>
       <c r="H17" s="1">
         <f>[1]Export!F17</f>
-        <v>1918.1006339999999</v>
+        <v>4018.8670339999999</v>
       </c>
       <c r="I17" s="1">
         <f>[1]Export!G17</f>
-        <v>0</v>
+        <v>2418.85</v>
       </c>
       <c r="J17" s="1">
         <f>[1]Export!H17</f>
@@ -3740,7 +4225,7 @@
       </c>
       <c r="L17" s="2">
         <f>[1]Export!J17</f>
-        <v>5.1300000000000012E-2</v>
+        <v>4.2848867051857864E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3761,19 +4246,19 @@
       </c>
       <c r="E18" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C18,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>3268.45</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>-5021.54</v>
+        <v>-1753.0900000000001</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.65088598318444135</v>
       </c>
       <c r="H18" s="1">
         <f>[1]Export!F18</f>
-        <v>0</v>
+        <v>3268.4454500000002</v>
       </c>
       <c r="I18" s="1">
         <f>[1]Export!G18</f>
@@ -3789,7 +4274,7 @@
       </c>
       <c r="L18" s="2">
         <f>[1]Export!J18</f>
-        <v>0</v>
+        <v>6.641717866762642E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3810,19 +4295,19 @@
       </c>
       <c r="E19" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C19,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>463.3</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-4034.22</v>
+        <v>-3570.9199999999996</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11484252222238749</v>
       </c>
       <c r="H19" s="1">
         <f>[1]Export!F19</f>
-        <v>0</v>
+        <v>96.065749999999994</v>
       </c>
       <c r="I19" s="1">
         <f>[1]Export!G19</f>
@@ -3838,7 +4323,7 @@
       </c>
       <c r="L19" s="2">
         <f>[1]Export!J19</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3859,19 +4344,19 @@
       </c>
       <c r="E20" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C20,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>89.73</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>-7606.32</v>
+        <v>-7516.59</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1796769002618876E-2</v>
       </c>
       <c r="H20" s="1">
         <f>[1]Export!F20</f>
-        <v>0</v>
+        <v>89.725700000000003</v>
       </c>
       <c r="I20" s="1">
         <f>[1]Export!G20</f>
@@ -3887,7 +4372,7 @@
       </c>
       <c r="L20" s="2">
         <f>[1]Export!J20</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3908,19 +4393,19 @@
       </c>
       <c r="E21" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C21,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>918.25</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-2679</v>
+        <v>-1760.75</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.34275849197461739</v>
       </c>
       <c r="H21" s="1">
         <f>[1]Export!F21</f>
-        <v>0</v>
+        <v>525.01790000000005</v>
       </c>
       <c r="I21" s="1">
         <f>[1]Export!G21</f>
@@ -3936,7 +4421,7 @@
       </c>
       <c r="L21" s="2">
         <f>[1]Export!J21</f>
-        <v>0</v>
+        <v>3.4999999999999809E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3957,19 +4442,19 @@
       </c>
       <c r="E22" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C22,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>1793.67</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>-4163.63</v>
+        <v>-2369.96</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.43079476322343724</v>
       </c>
       <c r="H22" s="1">
         <f>[1]Export!F22</f>
-        <v>0</v>
+        <v>1150.9555</v>
       </c>
       <c r="I22" s="1">
         <f>[1]Export!G22</f>
@@ -3985,7 +4470,7 @@
       </c>
       <c r="L22" s="2">
         <f>[1]Export!J22</f>
-        <v>0</v>
+        <v>3.4999999999999809E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4006,23 +4491,23 @@
       </c>
       <c r="E23" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C23,'RELATÓRIO PLK'!B:B)</f>
-        <v>212.34</v>
+        <v>610.98</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-3182.56</v>
+        <v>-2783.92</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>6.254676131844826E-2</v>
+        <v>0.17996995493239859</v>
       </c>
       <c r="H23" s="1">
         <f>[1]Export!F23</f>
-        <v>185.852</v>
+        <v>539.60169999999994</v>
       </c>
       <c r="I23" s="1">
         <f>[1]Export!G23</f>
-        <v>0</v>
+        <v>313.58999999999997</v>
       </c>
       <c r="J23" s="1">
         <f>[1]Export!H23</f>
@@ -4034,7 +4519,7 @@
       </c>
       <c r="L23" s="2">
         <f>[1]Export!J23</f>
-        <v>3.0000000000000138E-2</v>
+        <v>3.3283707764520609E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4055,35 +4540,35 @@
       </c>
       <c r="E24" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C24,'RELATÓRIO PLK'!B:B)</f>
-        <v>2268.37</v>
+        <v>3753.02</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>-12540.25</v>
+        <v>-11055.6</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>0.1531790268100606</v>
+        <v>0.25343482377156007</v>
       </c>
       <c r="H24" s="1">
         <f>[1]Export!F24</f>
-        <v>140.24260000000001</v>
+        <v>1658.5317</v>
       </c>
       <c r="I24" s="1">
         <f>[1]Export!G24</f>
-        <v>0</v>
+        <v>2038.91</v>
       </c>
       <c r="J24" s="1">
         <f>[1]Export!H24</f>
-        <v>0</v>
+        <v>380.37830000000008</v>
       </c>
       <c r="K24" s="2">
         <f>[1]Export!I24</f>
-        <v>0</v>
+        <v>0.18655963235258058</v>
       </c>
       <c r="L24" s="2">
         <f>[1]Export!J24</f>
-        <v>3.0000000000000027E-2</v>
+        <v>3.3506582052761247E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4104,19 +4589,19 @@
       </c>
       <c r="E25" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C25,'RELATÓRIO PLK'!B:B)</f>
-        <v>307.10000000000002</v>
+        <v>895.36</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-3198.83</v>
+        <v>-2610.5699999999997</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>8.7594447122446836E-2</v>
+        <v>0.25538444863417126</v>
       </c>
       <c r="H25" s="1">
         <f>[1]Export!F25</f>
-        <v>0</v>
+        <v>895.35595000000001</v>
       </c>
       <c r="I25" s="1">
         <f>[1]Export!G25</f>
@@ -4132,7 +4617,7 @@
       </c>
       <c r="L25" s="2">
         <f>[1]Export!J25</f>
-        <v>0</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4153,19 +4638,19 @@
       </c>
       <c r="E26" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C26,'RELATÓRIO PLK'!B:B)</f>
-        <v>94.88</v>
+        <v>261.41000000000003</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>-4544.33</v>
+        <v>-4377.8</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>2.045175795016824E-2</v>
+        <v>5.6347955794197727E-2</v>
       </c>
       <c r="H26" s="1">
         <f>[1]Export!F26</f>
-        <v>0</v>
+        <v>261.40704999999997</v>
       </c>
       <c r="I26" s="1">
         <f>[1]Export!G26</f>
@@ -4181,7 +4666,7 @@
       </c>
       <c r="L26" s="2">
         <f>[1]Export!J26</f>
-        <v>0</v>
+        <v>8.0168021394137812E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4202,15 +4687,15 @@
       </c>
       <c r="E27" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C27,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>430.56</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>-4055.63</v>
+        <v>-3625.07</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10616353069683378</v>
       </c>
       <c r="H27" s="1">
         <f>[1]Export!F27</f>
@@ -4251,23 +4736,23 @@
       </c>
       <c r="E28" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C28,'RELATÓRIO PLK'!B:B)</f>
-        <v>1196.8399999999999</v>
+        <v>3700.81</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>-4600.6099999999997</v>
+        <v>-2096.64</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>0.2064424876454303</v>
+        <v>0.63835134412543448</v>
       </c>
       <c r="H28" s="1">
         <f>[1]Export!F28</f>
-        <v>0</v>
+        <v>2555.25245</v>
       </c>
       <c r="I28" s="1">
         <f>[1]Export!G28</f>
-        <v>0</v>
+        <v>353.06</v>
       </c>
       <c r="J28" s="1">
         <f>[1]Export!H28</f>
@@ -4279,7 +4764,7 @@
       </c>
       <c r="L28" s="2">
         <f>[1]Export!J28</f>
-        <v>0</v>
+        <v>3.5000000000000142E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4300,19 +4785,19 @@
       </c>
       <c r="E29" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C29,'RELATÓRIO PLK'!B:B)</f>
-        <v>3481.16</v>
+        <v>5793.59</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>-11167.45</v>
+        <v>-8855.02</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>0.23764439083298686</v>
+        <v>0.39550441987328488</v>
       </c>
       <c r="H29" s="1">
         <f>[1]Export!F29</f>
-        <v>414.6798</v>
+        <v>5322.87835</v>
       </c>
       <c r="I29" s="1">
         <f>[1]Export!G29</f>
@@ -4328,7 +4813,7 @@
       </c>
       <c r="L29" s="2">
         <f>[1]Export!J29</f>
-        <v>3.5000000000000031E-2</v>
+        <v>3.3709592507674468E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4349,19 +4834,19 @@
       </c>
       <c r="E30" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C30,'RELATÓRIO PLK'!B:B)</f>
-        <v>1407.9</v>
+        <v>3401.21</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>-2496.64</v>
+        <v>-503.32999999999993</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="1"/>
-        <v>0.36058024760919344</v>
+        <v>0.87109108883504849</v>
       </c>
       <c r="H30" s="1">
         <f>[1]Export!F30</f>
-        <v>158.28895</v>
+        <v>3026.1279999999997</v>
       </c>
       <c r="I30" s="1">
         <f>[1]Export!G30</f>
@@ -4377,7 +4862,7 @@
       </c>
       <c r="L30" s="2">
         <f>[1]Export!J30</f>
-        <v>3.5000000000000031E-2</v>
+        <v>3.2332663946483042E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4398,19 +4883,19 @@
       </c>
       <c r="E31" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C31,'RELATÓRIO PLK'!B:B)</f>
-        <v>696.01</v>
+        <v>1223.5899999999999</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>-1603.8</v>
+        <v>-1076.22</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="1"/>
-        <v>0.30263804401233146</v>
+        <v>0.53203960327157462</v>
       </c>
       <c r="H31" s="1">
         <f>[1]Export!F31</f>
-        <v>152.41210000000001</v>
+        <v>1223.58925</v>
       </c>
       <c r="I31" s="1">
         <f>[1]Export!G31</f>
@@ -4426,7 +4911,7 @@
       </c>
       <c r="L31" s="2">
         <f>[1]Export!J31</f>
-        <v>3.499999999999992E-2</v>
+        <v>3.2850452515511885E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4447,19 +4932,19 @@
       </c>
       <c r="E32" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C32,'RELATÓRIO PLK'!B:B)</f>
-        <v>1049.44</v>
+        <v>1725.41</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>-2118.23</v>
+        <v>-1442.26</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="1"/>
-        <v>0.33129713638099928</v>
+        <v>0.54469373388010744</v>
       </c>
       <c r="H32" s="1">
         <f>[1]Export!F32</f>
-        <v>0</v>
+        <v>1589.6522</v>
       </c>
       <c r="I32" s="1">
         <f>[1]Export!G32</f>
@@ -4475,7 +4960,7 @@
       </c>
       <c r="L32" s="2">
         <f>[1]Export!J32</f>
-        <v>0</v>
+        <v>3.4608536170626314E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -4496,19 +4981,19 @@
       </c>
       <c r="E33" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C33,'RELATÓRIO PLK'!B:B)</f>
-        <v>399.71</v>
+        <v>774.79</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-1222.42</v>
+        <v>-847.34000000000015</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
-        <v>0.24641058361536988</v>
+        <v>0.47763742733319764</v>
       </c>
       <c r="H33" s="1">
         <f>[1]Export!F33</f>
-        <v>0</v>
+        <v>399.71265</v>
       </c>
       <c r="I33" s="1">
         <f>[1]Export!G33</f>
@@ -4524,7 +5009,7 @@
       </c>
       <c r="L33" s="2">
         <f>[1]Export!J33</f>
-        <v>0</v>
+        <v>3.5000000000000142E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4545,19 +5030,19 @@
       </c>
       <c r="E34" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C34,'RELATÓRIO PLK'!B:B)</f>
-        <v>73.77</v>
+        <v>222.09</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>-717.56000000000006</v>
+        <v>-569.24</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>9.3222802117953307E-2</v>
+        <v>0.28065408868613601</v>
       </c>
       <c r="H34" s="1">
         <f>[1]Export!F34</f>
-        <v>0</v>
+        <v>222.08725000000001</v>
       </c>
       <c r="I34" s="1">
         <f>[1]Export!G34</f>
@@ -4573,7 +5058,7 @@
       </c>
       <c r="L34" s="2">
         <f>[1]Export!J34</f>
-        <v>0</v>
+        <v>3.1666666666666621E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4655,7 +5140,7 @@
       </c>
       <c r="H36" s="1">
         <f>[1]Export!F36</f>
-        <v>0</v>
+        <v>115.67455000000001</v>
       </c>
       <c r="I36" s="1">
         <f>[1]Export!G36</f>
@@ -4671,7 +5156,7 @@
       </c>
       <c r="L36" s="2">
         <f>[1]Export!J36</f>
-        <v>0</v>
+        <v>3.499999999999992E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4692,23 +5177,23 @@
       </c>
       <c r="E37" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C37,'RELATÓRIO PLK'!B:B)</f>
-        <v>32.36</v>
+        <v>157.05000000000001</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>-1210.8500000000001</v>
+        <v>-1086.1600000000001</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
-        <v>2.6029391655472526E-2</v>
+        <v>0.12632620393980101</v>
       </c>
       <c r="H37" s="1">
         <f>[1]Export!F37</f>
-        <v>0</v>
+        <v>32.356450000000002</v>
       </c>
       <c r="I37" s="1">
         <f>[1]Export!G37</f>
-        <v>0</v>
+        <v>27.58</v>
       </c>
       <c r="J37" s="1">
         <f>[1]Export!H37</f>
@@ -4720,7 +5205,7 @@
       </c>
       <c r="L37" s="2">
         <f>[1]Export!J37</f>
-        <v>0</v>
+        <v>3.499999999999992E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4741,19 +5226,19 @@
       </c>
       <c r="E38" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C38,'RELATÓRIO PLK'!B:B)</f>
-        <v>3248.72</v>
+        <v>7971.28</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>-19177.899999999998</v>
+        <v>-14455.34</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="1"/>
-        <v>0.14485999227703505</v>
+        <v>0.35543831393228226</v>
       </c>
       <c r="H38" s="1">
         <f>[1]Export!F38</f>
-        <v>0</v>
+        <v>5029.243105999999</v>
       </c>
       <c r="I38" s="1">
         <f>[1]Export!G38</f>
@@ -4769,7 +5254,7 @@
       </c>
       <c r="L38" s="2">
         <f>[1]Export!J38</f>
-        <v>0</v>
+        <v>5.1105900443575991E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4790,19 +5275,19 @@
       </c>
       <c r="E39" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C39,'RELATÓRIO PLK'!B:B)</f>
-        <v>1148.1500000000001</v>
+        <v>2292.02</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>-4660.6499999999996</v>
+        <v>-3516.78</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="1"/>
-        <v>0.19765700316760779</v>
+        <v>0.39457719322407381</v>
       </c>
       <c r="H39" s="1">
         <f>[1]Export!F39</f>
-        <v>0</v>
+        <v>1217.3572039999999</v>
       </c>
       <c r="I39" s="1">
         <f>[1]Export!G39</f>
@@ -4818,7 +5303,7 @@
       </c>
       <c r="L39" s="2">
         <f>[1]Export!J39</f>
-        <v>0</v>
+        <v>5.4230084837937786E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4839,19 +5324,19 @@
       </c>
       <c r="E40" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C40,'RELATÓRIO PLK'!B:B)</f>
-        <v>675.07</v>
+        <v>1710.78</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>-3305.29</v>
+        <v>-2269.58</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="1"/>
-        <v>0.16960023716447759</v>
+        <v>0.42980534424021943</v>
       </c>
       <c r="H40" s="1">
         <f>[1]Export!F40</f>
-        <v>0</v>
+        <v>1123.655636</v>
       </c>
       <c r="I40" s="1">
         <f>[1]Export!G40</f>
@@ -4867,7 +5352,7 @@
       </c>
       <c r="L40" s="2">
         <f>[1]Export!J40</f>
-        <v>0</v>
+        <v>4.0897568220422342E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4888,19 +5373,19 @@
       </c>
       <c r="E41" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C41,'RELATÓRIO PLK'!B:B)</f>
-        <v>925.45</v>
+        <v>1783.01</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>-1434.9199999999998</v>
+        <v>-577.3599999999999</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="1"/>
-        <v>0.39207836059600831</v>
+        <v>0.75539428140503395</v>
       </c>
       <c r="H41" s="1">
         <f>[1]Export!F41</f>
-        <v>0</v>
+        <v>1233.9460000000001</v>
       </c>
       <c r="I41" s="1">
         <f>[1]Export!G41</f>
@@ -4916,7 +5401,7 @@
       </c>
       <c r="L41" s="2">
         <f>[1]Export!J41</f>
-        <v>0</v>
+        <v>5.4128595081866515E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4937,19 +5422,19 @@
       </c>
       <c r="E42" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C42,'RELATÓRIO PLK'!B:B)</f>
-        <v>133.25</v>
+        <v>805.38</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>-1437</v>
+        <v>-764.87</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="1"/>
-        <v>8.4859098869606756E-2</v>
+        <v>0.51289921986944753</v>
       </c>
       <c r="H42" s="1">
         <f>[1]Export!F42</f>
-        <v>0</v>
+        <v>740.71187699999996</v>
       </c>
       <c r="I42" s="1">
         <f>[1]Export!G42</f>
@@ -4965,7 +5450,7 @@
       </c>
       <c r="L42" s="2">
         <f>[1]Export!J42</f>
-        <v>0</v>
+        <v>6.1046969716176402E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4986,19 +5471,19 @@
       </c>
       <c r="E43" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C43,'RELATÓRIO PLK'!B:B)</f>
-        <v>472.67</v>
+        <v>1623.46</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>-3341.36</v>
+        <v>-2190.5700000000002</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="1"/>
-        <v>0.12392928215037637</v>
+        <v>0.42565475363329602</v>
       </c>
       <c r="H43" s="1">
         <f>[1]Export!F43</f>
-        <v>0</v>
+        <v>1375.004324</v>
       </c>
       <c r="I43" s="1">
         <f>[1]Export!G43</f>
@@ -5014,7 +5499,7 @@
       </c>
       <c r="L43" s="2">
         <f>[1]Export!J43</f>
-        <v>0</v>
+        <v>5.7874211871432824E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5035,23 +5520,23 @@
       </c>
       <c r="E44" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C44,'RELATÓRIO PLK'!B:B)</f>
-        <v>2094.16</v>
+        <v>4405.3599999999997</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>-8004.74</v>
+        <v>-5693.54</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="1"/>
-        <v>0.20736515858162768</v>
+        <v>0.43622176672706925</v>
       </c>
       <c r="H44" s="1">
         <f>[1]Export!F44</f>
-        <v>0</v>
+        <v>3495.8005769999995</v>
       </c>
       <c r="I44" s="1">
         <f>[1]Export!G44</f>
-        <v>0</v>
+        <v>147.38999999999999</v>
       </c>
       <c r="J44" s="1">
         <f>[1]Export!H44</f>
@@ -5063,7 +5548,7 @@
       </c>
       <c r="L44" s="2">
         <f>[1]Export!J44</f>
-        <v>0</v>
+        <v>4.9180884344860232E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5084,19 +5569,19 @@
       </c>
       <c r="E45" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C45,'RELATÓRIO PLK'!B:B)</f>
-        <v>627.57000000000005</v>
+        <v>1451.75</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>-2641.94</v>
+        <v>-1817.7600000000002</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="1"/>
-        <v>0.19194619377215547</v>
+        <v>0.44402678077143054</v>
       </c>
       <c r="H45" s="1">
         <f>[1]Export!F45</f>
-        <v>0</v>
+        <v>1203.0272430000002</v>
       </c>
       <c r="I45" s="1">
         <f>[1]Export!G45</f>
@@ -5112,7 +5597,7 @@
       </c>
       <c r="L45" s="2">
         <f>[1]Export!J45</f>
-        <v>0</v>
+        <v>4.5867706961914778E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5133,19 +5618,19 @@
       </c>
       <c r="E46" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C46,'RELATÓRIO PLK'!B:B)</f>
-        <v>1278.08</v>
+        <v>2487.19</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>-6305.08</v>
+        <v>-5095.9699999999993</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="1"/>
-        <v>0.16854187436372173</v>
+        <v>0.32798859578328826</v>
       </c>
       <c r="H46" s="1">
         <f>[1]Export!F46</f>
-        <v>0</v>
+        <v>1979.8794319999995</v>
       </c>
       <c r="I46" s="1">
         <f>[1]Export!G46</f>
@@ -5161,7 +5646,7 @@
       </c>
       <c r="L46" s="2">
         <f>[1]Export!J46</f>
-        <v>0</v>
+        <v>4.3864456152720832E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -5182,19 +5667,19 @@
       </c>
       <c r="E47" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C47,'RELATÓRIO PLK'!B:B)</f>
-        <v>108.5</v>
+        <v>509</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>-1444.28</v>
+        <v>-1043.78</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="1"/>
-        <v>6.9874676386867424E-2</v>
+        <v>0.3277991730959956</v>
       </c>
       <c r="H47" s="1">
         <f>[1]Export!F47</f>
-        <v>0</v>
+        <v>164.50783999999999</v>
       </c>
       <c r="I47" s="1">
         <f>[1]Export!G47</f>
@@ -5210,7 +5695,7 @@
       </c>
       <c r="L47" s="2">
         <f>[1]Export!J47</f>
-        <v>0</v>
+        <v>5.1500000000000101E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -5231,19 +5716,19 @@
       </c>
       <c r="E48" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C48,'RELATÓRIO PLK'!B:B)</f>
-        <v>255.73</v>
+        <v>1870.46</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>-6145.64</v>
+        <v>-4530.91</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="1"/>
-        <v>3.9949260861346869E-2</v>
+        <v>0.29219682661680235</v>
       </c>
       <c r="H48" s="1">
         <f>[1]Export!F48</f>
-        <v>0</v>
+        <v>1114.0064589999999</v>
       </c>
       <c r="I48" s="1">
         <f>[1]Export!G48</f>
@@ -5259,7 +5744,7 @@
       </c>
       <c r="L48" s="2">
         <f>[1]Export!J48</f>
-        <v>0</v>
+        <v>5.3769645208143979E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5280,19 +5765,19 @@
       </c>
       <c r="E49" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C49,'RELATÓRIO PLK'!B:B)</f>
-        <v>978.58</v>
+        <v>1801.87</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>-5219.0200000000004</v>
+        <v>-4395.7300000000005</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="1"/>
-        <v>0.15789660513747256</v>
+        <v>0.29073673680134243</v>
       </c>
       <c r="H49" s="1">
         <f>[1]Export!F49</f>
-        <v>0</v>
+        <v>1218.605542</v>
       </c>
       <c r="I49" s="1">
         <f>[1]Export!G49</f>
@@ -5308,7 +5793,7 @@
       </c>
       <c r="L49" s="2">
         <f>[1]Export!J49</f>
-        <v>0</v>
+        <v>5.5593454438365053E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5329,19 +5814,19 @@
       </c>
       <c r="E50" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C50,'RELATÓRIO PLK'!B:B)</f>
-        <v>72.760000000000005</v>
+        <v>540.91999999999996</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>-1300.1200000000001</v>
+        <v>-831.96000000000015</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="1"/>
-        <v>5.2998077035137814E-2</v>
+        <v>0.39400384592972432</v>
       </c>
       <c r="H50" s="1">
         <f>[1]Export!F50</f>
-        <v>0</v>
+        <v>411.10918500000002</v>
       </c>
       <c r="I50" s="1">
         <f>[1]Export!G50</f>
@@ -5357,7 +5842,7 @@
       </c>
       <c r="L50" s="2">
         <f>[1]Export!J50</f>
-        <v>0</v>
+        <v>4.6061850287729578E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5378,19 +5863,19 @@
       </c>
       <c r="E51" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C51,'RELATÓRIO PLK'!B:B)</f>
-        <v>285.51</v>
+        <v>533.04</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>280.74</v>
+        <v>528.27</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="1"/>
-        <v>59.855345911949691</v>
+        <v>111.74842767295598</v>
       </c>
       <c r="H51" s="1">
         <f>[1]Export!F51</f>
-        <v>0</v>
+        <v>384.10376599999995</v>
       </c>
       <c r="I51" s="1">
         <f>[1]Export!G51</f>
@@ -5406,7 +5891,7 @@
       </c>
       <c r="L51" s="2">
         <f>[1]Export!J51</f>
-        <v>0</v>
+        <v>3.7526896862784542E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5439,7 +5924,7 @@
       </c>
       <c r="H52" s="1">
         <f>[1]Export!F52</f>
-        <v>0</v>
+        <v>348.70177100000001</v>
       </c>
       <c r="I52" s="1">
         <f>[1]Export!G52</f>
@@ -5455,7 +5940,7 @@
       </c>
       <c r="L52" s="2">
         <f>[1]Export!J52</f>
-        <v>0</v>
+        <v>4.9884823301817316E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5476,19 +5961,19 @@
       </c>
       <c r="E53" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C53,'RELATÓRIO PLK'!B:B)</f>
-        <v>356.85</v>
+        <v>1024.43</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-2965.01</v>
+        <v>-2297.4300000000003</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="1"/>
-        <v>0.10742475601018707</v>
+        <v>0.3083904800322711</v>
       </c>
       <c r="H53" s="1">
         <f>[1]Export!F53</f>
-        <v>0</v>
+        <v>639.43674800000008</v>
       </c>
       <c r="I53" s="1">
         <f>[1]Export!G53</f>
@@ -5504,7 +5989,7 @@
       </c>
       <c r="L53" s="2">
         <f>[1]Export!J53</f>
-        <v>0</v>
+        <v>4.1051052023814871E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5525,19 +6010,19 @@
       </c>
       <c r="E54" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C54,'RELATÓRIO PLK'!B:B)</f>
-        <v>157.91</v>
+        <v>359.11</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>-2261.8900000000003</v>
+        <v>-2060.69</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="1"/>
-        <v>6.5257459294156536E-2</v>
+        <v>0.14840482684519382</v>
       </c>
       <c r="H54" s="1">
         <f>[1]Export!F54</f>
-        <v>0</v>
+        <v>297.58533</v>
       </c>
       <c r="I54" s="1">
         <f>[1]Export!G54</f>
@@ -5553,7 +6038,7 @@
       </c>
       <c r="L54" s="2">
         <f>[1]Export!J54</f>
-        <v>0</v>
+        <v>3.5567377495462793E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5574,19 +6059,19 @@
       </c>
       <c r="E55" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C55,'RELATÓRIO PLK'!B:B)</f>
-        <v>298.08</v>
+        <v>972.17</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>-1686.2</v>
+        <v>-1012.11</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="1"/>
-        <v>0.15022073497691857</v>
+        <v>0.48993589614368938</v>
       </c>
       <c r="H55" s="1">
         <f>[1]Export!F55</f>
-        <v>0</v>
+        <v>593.70029900000009</v>
       </c>
       <c r="I55" s="1">
         <f>[1]Export!G55</f>
@@ -5602,7 +6087,7 @@
       </c>
       <c r="L55" s="2">
         <f>[1]Export!J55</f>
-        <v>0</v>
+        <v>4.9425526362136929E-2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5623,19 +6108,19 @@
       </c>
       <c r="E56" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C56,'RELATÓRIO PLK'!B:B)</f>
-        <v>201.76</v>
+        <v>658.91</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>-1821.39</v>
+        <v>-1364.2400000000002</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="1"/>
-        <v>9.9725675308306339E-2</v>
+        <v>0.32568519388082939</v>
       </c>
       <c r="H56" s="1">
         <f>[1]Export!F56</f>
-        <v>0</v>
+        <v>560.29328599999997</v>
       </c>
       <c r="I56" s="1">
         <f>[1]Export!G56</f>
@@ -5651,7 +6136,7 @@
       </c>
       <c r="L56" s="2">
         <f>[1]Export!J56</f>
-        <v>0</v>
+        <v>9.6548872083460968E-2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5672,19 +6157,19 @@
       </c>
       <c r="E57" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C57,'RELATÓRIO PLK'!B:B)</f>
-        <v>75.27</v>
+        <v>352.05</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>-2025.7800000000002</v>
+        <v>-1749.0000000000002</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="1"/>
-        <v>3.5824944670521879E-2</v>
+        <v>0.16755907760405511</v>
       </c>
       <c r="H57" s="1">
         <f>[1]Export!F57</f>
-        <v>0</v>
+        <v>177.678675</v>
       </c>
       <c r="I57" s="1">
         <f>[1]Export!G57</f>
@@ -5700,7 +6185,7 @@
       </c>
       <c r="L57" s="2">
         <f>[1]Export!J57</f>
-        <v>0</v>
+        <v>4.9846657754010759E-2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -5721,19 +6206,19 @@
       </c>
       <c r="E58" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C58,'RELATÓRIO PLK'!B:B)</f>
-        <v>326.44</v>
+        <v>786.49</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>-1997</v>
+        <v>-1536.95</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="1"/>
-        <v>0.14049857108425437</v>
+        <v>0.33850239300347762</v>
       </c>
       <c r="H58" s="1">
         <f>[1]Export!F58</f>
-        <v>0</v>
+        <v>444.85922999999997</v>
       </c>
       <c r="I58" s="1">
         <f>[1]Export!G58</f>
@@ -5749,7 +6234,7 @@
       </c>
       <c r="L58" s="2">
         <f>[1]Export!J58</f>
-        <v>0</v>
+        <v>0.10007640644913329</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5782,7 +6267,7 @@
       </c>
       <c r="H59" s="1">
         <f>[1]Export!F59</f>
-        <v>0</v>
+        <v>53.704070000000002</v>
       </c>
       <c r="I59" s="1">
         <f>[1]Export!G59</f>
@@ -5798,7 +6283,7 @@
       </c>
       <c r="L59" s="2">
         <f>[1]Export!J59</f>
-        <v>0</v>
+        <v>5.1499999999999879E-2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5819,19 +6304,19 @@
       </c>
       <c r="E60" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C60,'RELATÓRIO PLK'!B:B)</f>
-        <v>172.76</v>
+        <v>402.46</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>-1001.19</v>
+        <v>-771.49</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="1"/>
-        <v>0.14716129307040332</v>
+        <v>0.34282550364155201</v>
       </c>
       <c r="H60" s="1">
         <f>[1]Export!F60</f>
-        <v>0</v>
+        <v>402.45733200000001</v>
       </c>
       <c r="I60" s="1">
         <f>[1]Export!G60</f>
@@ -5847,7 +6332,7 @@
       </c>
       <c r="L60" s="2">
         <f>[1]Export!J60</f>
-        <v>0</v>
+        <v>4.2247133576069018E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5868,19 +6353,19 @@
       </c>
       <c r="E61" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C61,'RELATÓRIO PLK'!B:B)</f>
-        <v>102.73</v>
+        <v>200.8</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>-759.64</v>
+        <v>-661.56999999999994</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="1"/>
-        <v>0.11912520147964331</v>
+        <v>0.2328466899358744</v>
       </c>
       <c r="H61" s="1">
         <f>[1]Export!F61</f>
-        <v>0</v>
+        <v>200.79728399999999</v>
       </c>
       <c r="I61" s="1">
         <f>[1]Export!G61</f>
@@ -5896,7 +6381,7 @@
       </c>
       <c r="L61" s="2">
         <f>[1]Export!J61</f>
-        <v>0</v>
+        <v>3.7497440322116882E-2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5917,19 +6402,19 @@
       </c>
       <c r="E62" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C62,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>351.02</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>-1618.35</v>
+        <v>-1267.33</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.21689992893996973</v>
       </c>
       <c r="H62" s="1">
         <f>[1]Export!F62</f>
-        <v>0</v>
+        <v>262.48</v>
       </c>
       <c r="I62" s="1">
         <f>[1]Export!G62</f>
@@ -5945,7 +6430,7 @@
       </c>
       <c r="L62" s="2">
         <f>[1]Export!J62</f>
-        <v>0</v>
+        <v>3.499999999999992E-2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5966,19 +6451,19 @@
       </c>
       <c r="E63" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C63,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>2934.36</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>-18533.84</v>
+        <v>-15599.48</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1583244486841367</v>
       </c>
       <c r="H63" s="1">
         <f>[1]Export!F63</f>
-        <v>0</v>
+        <v>2934.3641000000002</v>
       </c>
       <c r="I63" s="1">
         <f>[1]Export!G63</f>
@@ -5994,7 +6479,7 @@
       </c>
       <c r="L63" s="2">
         <f>[1]Export!J63</f>
-        <v>0</v>
+        <v>0.10426805741252898</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6015,23 +6500,23 @@
       </c>
       <c r="E64" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C64,'RELATÓRIO PLK'!B:B)</f>
-        <v>1016.18</v>
+        <v>1410.89</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>-3708.57</v>
+        <v>-3313.8599999999997</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="1"/>
-        <v>0.21507592994338323</v>
+        <v>0.29861685803481669</v>
       </c>
       <c r="H64" s="1">
         <f>[1]Export!F64</f>
-        <v>0</v>
+        <v>1138.7289500000002</v>
       </c>
       <c r="I64" s="1">
         <f>[1]Export!G64</f>
-        <v>0</v>
+        <v>557.58999999999992</v>
       </c>
       <c r="J64" s="1">
         <f>[1]Export!H64</f>
@@ -6043,7 +6528,7 @@
       </c>
       <c r="L64" s="2">
         <f>[1]Export!J64</f>
-        <v>0</v>
+        <v>3.4999999999999698E-2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6064,19 +6549,19 @@
       </c>
       <c r="E65" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C65,'RELATÓRIO PLK'!B:B)</f>
-        <v>239.83</v>
+        <v>379.43</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>-1717.23</v>
+        <v>-1577.6299999999999</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" ref="G65:G66" si="2">E65/D65</f>
-        <v>0.12254606399395011</v>
+        <v>0.19387755102040818</v>
       </c>
       <c r="H65" s="1">
         <f>[1]Export!F65</f>
-        <v>166.3356</v>
+        <v>545.76499999999999</v>
       </c>
       <c r="I65" s="1" t="e">
         <f>#REF!</f>
@@ -6109,19 +6594,19 @@
       </c>
       <c r="E66" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C66,'RELATÓRIO PLK'!B:B)</f>
-        <v>439.16</v>
+        <v>522.48</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>-2235.17</v>
+        <v>-2151.85</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>0.16421309262506872</v>
+        <v>0.19536855960184421</v>
       </c>
       <c r="H66" s="1">
         <f>[1]Export!F66</f>
-        <v>368.61331999999999</v>
+        <v>812.09688600000004</v>
       </c>
       <c r="I66" s="1" t="e">
         <f>#REF!</f>
@@ -6158,19 +6643,19 @@
       </c>
       <c r="E67" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C67,'RELATÓRIO PLK'!B:B)</f>
-        <v>1155.67</v>
+        <v>1611.1</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F130" si="3">E67-D67</f>
-        <v>-2664.99</v>
+        <v>-2209.56</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" ref="G67:G130" si="4">E67/D67</f>
-        <v>0.3024791528165291</v>
+        <v>0.42168107080975537</v>
       </c>
       <c r="H67" s="1">
         <f>[1]Export!F67</f>
-        <v>221.15384800000001</v>
+        <v>1413.279655</v>
       </c>
       <c r="I67" s="1" t="e">
         <f>#REF!</f>
@@ -6207,19 +6692,19 @@
       </c>
       <c r="E68" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C68,'RELATÓRIO PLK'!B:B)</f>
-        <v>583.45000000000005</v>
+        <v>789.62</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="3"/>
-        <v>-3259.34</v>
+        <v>-3053.17</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="4"/>
-        <v>0.15182979033462668</v>
+        <v>0.20548091360704071</v>
       </c>
       <c r="H68" s="1">
         <f>[1]Export!F68</f>
-        <v>0</v>
+        <v>583.45392500000003</v>
       </c>
       <c r="I68" s="1" t="e">
         <f>#REF!</f>
@@ -6256,19 +6741,19 @@
       </c>
       <c r="E69" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C69,'RELATÓRIO PLK'!B:B)</f>
-        <v>526.26</v>
+        <v>891.5</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="3"/>
-        <v>-7168.11</v>
+        <v>-6802.87</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="4"/>
-        <v>6.8395463176322432E-2</v>
+        <v>0.11586393687852287</v>
       </c>
       <c r="H69" s="1">
         <f>[1]Export!F69</f>
-        <v>61.819099999999999</v>
+        <v>816.29820200000006</v>
       </c>
       <c r="I69" s="1" t="e">
         <f>#REF!</f>
@@ -6305,19 +6790,19 @@
       </c>
       <c r="E70" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C70,'RELATÓRIO PLK'!B:B)</f>
-        <v>952.22</v>
+        <v>1077.3399999999999</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>-11003.220000000001</v>
+        <v>-10878.1</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="4"/>
-        <v>7.9647424101496889E-2</v>
+        <v>9.01129527645992E-2</v>
       </c>
       <c r="H70" s="1">
         <f>[1]Export!F70</f>
-        <v>281.02096699999998</v>
+        <v>1029.220313</v>
       </c>
       <c r="I70" s="1" t="e">
         <f>#REF!</f>
@@ -6354,19 +6839,19 @@
       </c>
       <c r="E71" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C71,'RELATÓRIO PLK'!B:B)</f>
-        <v>531.69000000000005</v>
+        <v>720.6</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>-2537</v>
+        <v>-2348.09</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="4"/>
-        <v>0.17326285809254113</v>
+        <v>0.23482332852129084</v>
       </c>
       <c r="H71" s="1">
         <f>[1]Export!F71</f>
-        <v>176.56023500000001</v>
+        <v>787.24679700000002</v>
       </c>
       <c r="I71" s="1" t="e">
         <f>#REF!</f>
@@ -6403,19 +6888,19 @@
       </c>
       <c r="E72" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C72,'RELATÓRIO PLK'!B:B)</f>
-        <v>296</v>
+        <v>829.58</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>-3641.01</v>
+        <v>-3107.4300000000003</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="4"/>
-        <v>7.5183959400661915E-2</v>
+        <v>0.21071320621486864</v>
       </c>
       <c r="H72" s="1">
         <f>[1]Export!F72</f>
-        <v>0</v>
+        <v>565.80890999999997</v>
       </c>
       <c r="I72" s="1" t="e">
         <f>#REF!</f>
@@ -6452,19 +6937,19 @@
       </c>
       <c r="E73" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C73,'RELATÓRIO PLK'!B:B)</f>
-        <v>1018.16</v>
+        <v>1489.79</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="3"/>
-        <v>-3678.1100000000006</v>
+        <v>-3206.4800000000005</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="4"/>
-        <v>0.21680184486837423</v>
+        <v>0.31722835356570211</v>
       </c>
       <c r="H73" s="1">
         <f>[1]Export!F73</f>
-        <v>138.18720400000001</v>
+        <v>1076.7179410000001</v>
       </c>
       <c r="I73" s="1" t="e">
         <f>#REF!</f>
@@ -6501,19 +6986,19 @@
       </c>
       <c r="E74" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C74,'RELATÓRIO PLK'!B:B)</f>
-        <v>747.01</v>
+        <v>1694.24</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
-        <v>-4711.8899999999994</v>
+        <v>-3764.66</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="4"/>
-        <v>0.13684258733444468</v>
+        <v>0.31036289362325747</v>
       </c>
       <c r="H74" s="1">
         <f>[1]Export!F74</f>
-        <v>0</v>
+        <v>1307.2729980000001</v>
       </c>
       <c r="I74" s="1" t="e">
         <f>#REF!</f>
@@ -6550,19 +7035,19 @@
       </c>
       <c r="E75" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C75,'RELATÓRIO PLK'!B:B)</f>
-        <v>339.64</v>
+        <v>823.87</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="3"/>
-        <v>-3813.1</v>
+        <v>-3328.87</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="4"/>
-        <v>8.1786964750983696E-2</v>
+        <v>0.19839190510361834</v>
       </c>
       <c r="H75" s="1">
         <f>[1]Export!F75</f>
-        <v>0</v>
+        <v>531.08273600000007</v>
       </c>
       <c r="I75" s="1" t="e">
         <f>#REF!</f>
@@ -6599,19 +7084,19 @@
       </c>
       <c r="E76" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C76,'RELATÓRIO PLK'!B:B)</f>
-        <v>597.21</v>
+        <v>918.54</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="3"/>
-        <v>-4235.2</v>
+        <v>-3913.87</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="4"/>
-        <v>0.12358429851771685</v>
+        <v>0.19007907027756338</v>
       </c>
       <c r="H76" s="1">
         <f>[1]Export!F76</f>
-        <v>35.31</v>
+        <v>666.02145299999995</v>
       </c>
       <c r="I76" s="1" t="e">
         <f>#REF!</f>
@@ -6648,19 +7133,19 @@
       </c>
       <c r="E77" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C77,'RELATÓRIO PLK'!B:B)</f>
-        <v>287.87</v>
+        <v>1348.54</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="3"/>
-        <v>-1811.29</v>
+        <v>-750.61999999999989</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="4"/>
-        <v>0.13713580670363384</v>
+        <v>0.64241887231082917</v>
       </c>
       <c r="H77" s="1">
         <f>[1]Export!F77</f>
-        <v>61.819099999999999</v>
+        <v>696.881843</v>
       </c>
       <c r="I77" s="1" t="e">
         <f>#REF!</f>
@@ -6697,19 +7182,19 @@
       </c>
       <c r="E78" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C78,'RELATÓRIO PLK'!B:B)</f>
-        <v>0</v>
+        <v>557.42999999999995</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
-        <v>-7550.03</v>
+        <v>-6992.5999999999995</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.3831494709292539E-2</v>
       </c>
       <c r="H78" s="1">
         <f>[1]Export!F78</f>
-        <v>123.6382</v>
+        <v>177.34226999999998</v>
       </c>
       <c r="I78" s="1" t="e">
         <f>#REF!</f>
@@ -6746,19 +7231,19 @@
       </c>
       <c r="E79" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C79,'RELATÓRIO PLK'!B:B)</f>
-        <v>592.97</v>
+        <v>812.91</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
-        <v>-3228.0299999999997</v>
+        <v>-3008.09</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="4"/>
-        <v>0.15518712378958388</v>
+        <v>0.21274797173514787</v>
       </c>
       <c r="H79" s="1">
         <f>[1]Export!F79</f>
-        <v>66.244145000000003</v>
+        <v>735.91362500000002</v>
       </c>
       <c r="I79" s="1" t="e">
         <f>#REF!</f>
@@ -6795,19 +7280,19 @@
       </c>
       <c r="E80" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C80,'RELATÓRIO PLK'!B:B)</f>
-        <v>209</v>
+        <v>484.26</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
-        <v>-1109.6500000000001</v>
+        <v>-834.3900000000001</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="4"/>
-        <v>0.15849543093315133</v>
+        <v>0.36723922193152087</v>
       </c>
       <c r="H80" s="1">
         <f>[1]Export!F80</f>
-        <v>0</v>
+        <v>209.00302500000001</v>
       </c>
       <c r="I80" s="1" t="e">
         <f>#REF!</f>
@@ -6844,19 +7329,19 @@
       </c>
       <c r="E81" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C81,'RELATÓRIO PLK'!B:B)</f>
-        <v>188.55</v>
+        <v>285.99</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
-        <v>-556.71</v>
+        <v>-459.27</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="4"/>
-        <v>0.25299895338539574</v>
+        <v>0.38374527010707676</v>
       </c>
       <c r="H81" s="1">
         <f>[1]Export!F81</f>
-        <v>0</v>
+        <v>188.55231499999999</v>
       </c>
       <c r="I81" s="1" t="e">
         <f>#REF!</f>
@@ -6893,19 +7378,19 @@
       </c>
       <c r="E82" s="1">
         <f>SUMIF('RELATÓRIO PLK'!A:A,'DADOS EM GERAL'!C82,'RELATÓRIO PLK'!B:B)</f>
-        <v>923.42</v>
+        <v>1915.87</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
-        <v>-3604.3</v>
+        <v>-2611.8500000000004</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="4"/>
-        <v>0.20394812400060072</v>
+        <v>0.42314233212301111</v>
       </c>
       <c r="H82" s="1">
         <f>[1]Export!F82</f>
-        <v>316.00855000000001</v>
+        <v>1925.5465000000002</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -6951,7 +7436,7 @@
       </c>
       <c r="H83" s="1">
         <f>[1]Export!F83</f>
-        <v>5900.4881699999996</v>
+        <v>88414.417931999982</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -22277,9 +22762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52B5F94-2DF1-4CE5-BCED-660E0FC6A9C4}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22304,7 +22787,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A2,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A2,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>224.05</v>
       </c>
       <c r="C2" t="str">
@@ -22317,8 +22800,8 @@
         <v>104</v>
       </c>
       <c r="B3" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A3,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>163.65</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A3,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>561.58000000000004</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(A3,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22330,8 +22813,8 @@
         <v>105</v>
       </c>
       <c r="B4" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A4,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>870.22</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A4,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>7180.44</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(A4,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22343,8 +22826,8 @@
         <v>106</v>
       </c>
       <c r="B5" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A5,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>844.54</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A5,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>3321.45</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(A5,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22356,8 +22839,8 @@
         <v>107</v>
       </c>
       <c r="B6" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A6,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A6,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>178.94</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(A6,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22369,8 +22852,8 @@
         <v>108</v>
       </c>
       <c r="B7" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A7,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A7,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>99.58</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(A7,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22382,8 +22865,8 @@
         <v>109</v>
       </c>
       <c r="B8" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A8,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>303.95</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A8,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>932.87</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(A8,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22395,8 +22878,8 @@
         <v>110</v>
       </c>
       <c r="B9" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A9,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A9,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>270.94</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(A9,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22408,8 +22891,8 @@
         <v>111</v>
       </c>
       <c r="B10" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A10,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>202.69</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A10,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>539.14</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(A10,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22421,8 +22904,8 @@
         <v>112</v>
       </c>
       <c r="B11" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A11,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>578.20000000000005</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A11,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1377.29</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(A11,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22434,8 +22917,8 @@
         <v>113</v>
       </c>
       <c r="B12" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A12,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1065.75</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A12,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1909.69</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(A12,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22447,8 +22930,8 @@
         <v>114</v>
       </c>
       <c r="B13" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A13,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>318.54000000000002</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A13,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>841.08</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(A13,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22460,8 +22943,8 @@
         <v>115</v>
       </c>
       <c r="B14" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A14,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A14,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1221.72</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(A14,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22473,8 +22956,8 @@
         <v>116</v>
       </c>
       <c r="B15" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A15,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A15,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>869.73</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(A15,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22486,8 +22969,8 @@
         <v>117</v>
       </c>
       <c r="B16" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A16,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A16,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>3255.25</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(A16,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22499,8 +22982,8 @@
         <v>118</v>
       </c>
       <c r="B17" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A17,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1705.5</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A17,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>2970.53</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(A17,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22512,8 +22995,8 @@
         <v>119</v>
       </c>
       <c r="B18" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A18,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A18,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>3268.45</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(A18,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22525,8 +23008,8 @@
         <v>120</v>
       </c>
       <c r="B19" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A19,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A19,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>463.3</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(A19,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22538,8 +23021,8 @@
         <v>121</v>
       </c>
       <c r="B20" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A20,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A20,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>89.73</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(A20,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22551,8 +23034,8 @@
         <v>122</v>
       </c>
       <c r="B21" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A21,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A21,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>918.25</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(A21,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22564,8 +23047,8 @@
         <v>123</v>
       </c>
       <c r="B22" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A22,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A22,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1793.67</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(A22,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22577,8 +23060,8 @@
         <v>124</v>
       </c>
       <c r="B23" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A23,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>212.34</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A23,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>610.98</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(A23,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22590,8 +23073,8 @@
         <v>125</v>
       </c>
       <c r="B24" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A24,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>2268.37</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A24,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>3753.02</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(A24,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22603,8 +23086,8 @@
         <v>126</v>
       </c>
       <c r="B25" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A25,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>307.10000000000002</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A25,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>895.36</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(A25,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22616,8 +23099,8 @@
         <v>127</v>
       </c>
       <c r="B26" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A26,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>94.88</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A26,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>261.41000000000003</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(A26,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22629,8 +23112,8 @@
         <v>128</v>
       </c>
       <c r="B27" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A27,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A27,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>430.56</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(A27,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22642,8 +23125,8 @@
         <v>129</v>
       </c>
       <c r="B28" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A28,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1196.8399999999999</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A28,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>3700.81</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(A28,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22655,8 +23138,8 @@
         <v>130</v>
       </c>
       <c r="B29" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A29,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>3481.16</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A29,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>5793.59</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(A29,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22668,8 +23151,8 @@
         <v>131</v>
       </c>
       <c r="B30" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A30,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1407.9</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A30,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>3401.21</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(A30,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22681,8 +23164,8 @@
         <v>132</v>
       </c>
       <c r="B31" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A31,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>696.01</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A31,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1223.5899999999999</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(A31,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22694,8 +23177,8 @@
         <v>133</v>
       </c>
       <c r="B32" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A32,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1049.44</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A32,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1725.41</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(A32,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22707,8 +23190,8 @@
         <v>134</v>
       </c>
       <c r="B33" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A33,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>399.71</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A33,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>774.79</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(A33,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22720,8 +23203,8 @@
         <v>135</v>
       </c>
       <c r="B34" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A34,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>73.77</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A34,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>222.09</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(A34,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22733,7 +23216,7 @@
         <v>136</v>
       </c>
       <c r="B35" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A35,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A35,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>170.1</v>
       </c>
       <c r="C35" t="str">
@@ -22746,7 +23229,7 @@
         <v>137</v>
       </c>
       <c r="B36" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A36,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A36,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>115.67</v>
       </c>
       <c r="C36" t="str">
@@ -22759,8 +23242,8 @@
         <v>138</v>
       </c>
       <c r="B37" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A37,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>32.36</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A37,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>157.05000000000001</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(A37,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22772,8 +23255,8 @@
         <v>139</v>
       </c>
       <c r="B38" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A38,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>3248.72</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A38,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>7971.28</v>
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(A38,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22785,8 +23268,8 @@
         <v>140</v>
       </c>
       <c r="B39" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A39,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1148.1500000000001</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A39,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>2292.02</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(A39,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22798,8 +23281,8 @@
         <v>141</v>
       </c>
       <c r="B40" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A40,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>675.07</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A40,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1710.78</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(A40,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22811,8 +23294,8 @@
         <v>142</v>
       </c>
       <c r="B41" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A41,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>925.45</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A41,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1783.01</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(A41,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22824,8 +23307,8 @@
         <v>143</v>
       </c>
       <c r="B42" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A42,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>133.25</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A42,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>805.38</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(A42,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22837,8 +23320,8 @@
         <v>144</v>
       </c>
       <c r="B43" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A43,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>472.67</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A43,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1623.46</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(A43,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22850,8 +23333,8 @@
         <v>145</v>
       </c>
       <c r="B44" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A44,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>2094.16</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A44,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>4405.3599999999997</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(A44,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22863,8 +23346,8 @@
         <v>146</v>
       </c>
       <c r="B45" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A45,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>627.57000000000005</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A45,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1451.75</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(A45,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22876,8 +23359,8 @@
         <v>147</v>
       </c>
       <c r="B46" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A46,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1278.08</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A46,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>2487.19</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(A46,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22889,8 +23372,8 @@
         <v>148</v>
       </c>
       <c r="B47" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A47,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>108.5</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A47,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>509</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(A47,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22902,8 +23385,8 @@
         <v>149</v>
       </c>
       <c r="B48" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A48,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>255.73</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A48,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1870.46</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(A48,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22915,8 +23398,8 @@
         <v>150</v>
       </c>
       <c r="B49" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A49,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>978.58</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A49,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1801.87</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(A49,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22928,8 +23411,8 @@
         <v>151</v>
       </c>
       <c r="B50" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A50,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>72.760000000000005</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A50,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>540.91999999999996</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(A50,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22941,8 +23424,8 @@
         <v>152</v>
       </c>
       <c r="B51" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A51,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>285.51</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A51,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>533.04</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(A51,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22954,7 +23437,7 @@
         <v>153</v>
       </c>
       <c r="B52" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A52,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A52,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>348.7</v>
       </c>
       <c r="C52" t="str">
@@ -22967,8 +23450,8 @@
         <v>154</v>
       </c>
       <c r="B53" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A53,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>356.85</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A53,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1024.43</v>
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(A53,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22980,8 +23463,8 @@
         <v>155</v>
       </c>
       <c r="B54" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A54,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>157.91</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A54,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>359.11</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(A54,'DADOS BANDEIRA'!B:E,4)</f>
@@ -22993,8 +23476,8 @@
         <v>156</v>
       </c>
       <c r="B55" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A55,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>298.08</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A55,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>972.17</v>
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(A55,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23006,8 +23489,8 @@
         <v>157</v>
       </c>
       <c r="B56" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A56,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>201.76</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A56,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>658.91</v>
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(A56,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23019,8 +23502,8 @@
         <v>158</v>
       </c>
       <c r="B57" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A57,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>75.27</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A57,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>352.05</v>
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(A57,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23032,8 +23515,8 @@
         <v>159</v>
       </c>
       <c r="B58" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A58,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>326.44</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A58,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>786.49</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(A58,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23045,7 +23528,7 @@
         <v>160</v>
       </c>
       <c r="B59" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A59,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A59,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>53.7</v>
       </c>
       <c r="C59" t="str">
@@ -23058,8 +23541,8 @@
         <v>161</v>
       </c>
       <c r="B60" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A60,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>172.76</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A60,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>402.46</v>
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(A60,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23071,8 +23554,8 @@
         <v>162</v>
       </c>
       <c r="B61" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A61,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>102.73</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A61,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>200.8</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(A61,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23084,8 +23567,8 @@
         <v>163</v>
       </c>
       <c r="B62" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A62,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A62,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>351.02</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(A62,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23097,8 +23580,8 @@
         <v>164</v>
       </c>
       <c r="B63" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A63,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A63,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>2934.36</v>
       </c>
       <c r="C63" t="str">
         <f>VLOOKUP(A63,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23110,8 +23593,8 @@
         <v>165</v>
       </c>
       <c r="B64" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A64,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1016.18</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A64,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1410.89</v>
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP(A64,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23123,8 +23606,8 @@
         <v>166</v>
       </c>
       <c r="B65" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A65,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>239.83</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A65,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>379.43</v>
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP(A65,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23136,8 +23619,8 @@
         <v>167</v>
       </c>
       <c r="B66" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A66,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>439.16</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A66,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>522.48</v>
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP(A66,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23149,8 +23632,8 @@
         <v>168</v>
       </c>
       <c r="B67" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A67,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1155.67</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A67,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1611.1</v>
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(A67,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23162,8 +23645,8 @@
         <v>169</v>
       </c>
       <c r="B68" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A68,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>583.45000000000005</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A68,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>789.62</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(A68,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23175,8 +23658,8 @@
         <v>170</v>
       </c>
       <c r="B69" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A69,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>526.26</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A69,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>891.5</v>
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP(A69,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23188,8 +23671,8 @@
         <v>171</v>
       </c>
       <c r="B70" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A70,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>952.22</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A70,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1077.3399999999999</v>
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP(A70,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23201,8 +23684,8 @@
         <v>172</v>
       </c>
       <c r="B71" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A71,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>531.69000000000005</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A71,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>720.6</v>
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(A71,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23214,8 +23697,8 @@
         <v>173</v>
       </c>
       <c r="B72" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A72,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>296</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A72,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>829.58</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(A72,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23227,8 +23710,8 @@
         <v>174</v>
       </c>
       <c r="B73" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A73,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>1018.16</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A73,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1489.79</v>
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP(A73,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23240,8 +23723,8 @@
         <v>175</v>
       </c>
       <c r="B74" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A74,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>747.01</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A74,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1694.24</v>
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(A74,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23253,8 +23736,8 @@
         <v>176</v>
       </c>
       <c r="B75" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A75,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>339.64</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A75,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>823.87</v>
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP(A75,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23266,8 +23749,8 @@
         <v>177</v>
       </c>
       <c r="B76" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A76,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>597.21</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A76,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>918.54</v>
       </c>
       <c r="C76" t="str">
         <f>VLOOKUP(A76,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23279,8 +23762,8 @@
         <v>178</v>
       </c>
       <c r="B77" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A77,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>287.87</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A77,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1348.54</v>
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(A77,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23292,8 +23775,8 @@
         <v>179</v>
       </c>
       <c r="B78" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A78,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>0</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A78,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>557.42999999999995</v>
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP(A78,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23305,8 +23788,8 @@
         <v>180</v>
       </c>
       <c r="B79" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A79,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>592.97</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A79,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>812.91</v>
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP(A79,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23318,8 +23801,8 @@
         <v>181</v>
       </c>
       <c r="B80" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A80,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>209</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A80,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>484.26</v>
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP(A80,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23331,8 +23814,8 @@
         <v>182</v>
       </c>
       <c r="B81" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A81,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>188.55</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A81,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>285.99</v>
       </c>
       <c r="C81" t="str">
         <f>VLOOKUP(A81,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23344,8 +23827,8 @@
         <v>184</v>
       </c>
       <c r="B82" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A82,'[3]RELATÓRIO PLK'!I:I)</f>
-        <v>923.42</v>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A82,'[2]RELATÓRIO PLK'!I:I)</f>
+        <v>1915.87</v>
       </c>
       <c r="C82" t="str">
         <f>VLOOKUP(A82,'DADOS BANDEIRA'!B:E,4)</f>
@@ -23358,7 +23841,7 @@
         <v>#REF!</v>
       </c>
       <c r="B83" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A83,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A83,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C83" t="e">
@@ -23372,7 +23855,7 @@
         <v>#REF!</v>
       </c>
       <c r="B84" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A84,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A84,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C84" t="e">
@@ -23386,7 +23869,7 @@
         <v>#REF!</v>
       </c>
       <c r="B85" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A85,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A85,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C85" t="e">
@@ -23400,7 +23883,7 @@
         <v>#REF!</v>
       </c>
       <c r="B86" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A86,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A86,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C86" t="e">
@@ -23414,7 +23897,7 @@
         <v>#REF!</v>
       </c>
       <c r="B87" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A87,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A87,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C87" t="e">
@@ -23428,7 +23911,7 @@
         <v>#REF!</v>
       </c>
       <c r="B88" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A88,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A88,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C88" t="e">
@@ -23442,7 +23925,7 @@
         <v>#REF!</v>
       </c>
       <c r="B89" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A89,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A89,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C89" t="e">
@@ -23456,7 +23939,7 @@
         <v>#REF!</v>
       </c>
       <c r="B90" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A90,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A90,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C90" t="e">
@@ -23470,7 +23953,7 @@
         <v>#REF!</v>
       </c>
       <c r="B91" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A91,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A91,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C91" t="e">
@@ -23484,7 +23967,7 @@
         <v>#REF!</v>
       </c>
       <c r="B92" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A92,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A92,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C92" t="e">
@@ -23498,7 +23981,7 @@
         <v>#REF!</v>
       </c>
       <c r="B93" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A93,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A93,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C93" t="e">
@@ -23512,7 +23995,7 @@
         <v>#REF!</v>
       </c>
       <c r="B94" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A94,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A94,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C94" t="e">
@@ -23526,7 +24009,7 @@
         <v>#REF!</v>
       </c>
       <c r="B95" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A95,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A95,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C95" t="e">
@@ -23540,7 +24023,7 @@
         <v>#REF!</v>
       </c>
       <c r="B96" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A96,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A96,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C96" t="e">
@@ -23554,7 +24037,7 @@
         <v>#REF!</v>
       </c>
       <c r="B97" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A97,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A97,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C97" t="e">
@@ -23568,7 +24051,7 @@
         <v>#REF!</v>
       </c>
       <c r="B98" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A98,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A98,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C98" t="e">
@@ -23582,7 +24065,7 @@
         <v>#REF!</v>
       </c>
       <c r="B99" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A99,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A99,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C99" t="e">
@@ -23596,7 +24079,7 @@
         <v>#REF!</v>
       </c>
       <c r="B100" s="1">
-        <f>SUMIF('[3]RELATÓRIO PLK'!B:B,A100,'[3]RELATÓRIO PLK'!I:I)</f>
+        <f>SUMIF('[2]RELATÓRIO PLK'!B:B,A100,'[2]RELATÓRIO PLK'!I:I)</f>
         <v>0</v>
       </c>
       <c r="C100" t="e">
